--- a/MRI_Experiment/experimental_data/Batch_I.xlsx
+++ b/MRI_Experiment/experimental_data/Batch_I.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="180" windowWidth="18915" windowHeight="11700"/>
+    <workbookView xWindow="120" yWindow="180" windowWidth="18915" windowHeight="11700" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sand-1-W" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="90">
   <si>
     <t>tube number</t>
   </si>
@@ -289,13 +289,17 @@
   <si>
     <t xml:space="preserve">water content </t>
   </si>
+  <si>
+    <t>gravel</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -340,9 +344,9 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -649,8 +653,8 @@
   </sheetPr>
   <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -738,6 +742,13 @@
         <f>(B7-B5)/D11</f>
         <v>1.485782363577357</v>
       </c>
+      <c r="C13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="1">
+        <f>D17-B9</f>
+        <v>17.271999999999935</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H15" t="s">
@@ -789,13 +800,13 @@
       <c r="F17" s="4">
         <v>0</v>
       </c>
-      <c r="G17" s="6">
-        <f>(D17-$B$7)/($B$7-$B$5)</f>
-        <v>0.28370036703370044</v>
-      </c>
-      <c r="H17" s="8">
-        <f>(D17-$B$7)/$D$11</f>
-        <v>0.42151700187909513</v>
+      <c r="G17" s="8">
+        <f>(D17-$D$13-$B$7)/($B$7-$B$5)</f>
+        <v>0.25885943414679063</v>
+      </c>
+      <c r="H17" s="7">
+        <f>G17*$B$13</f>
+        <v>0.3846087819009158</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -818,13 +829,13 @@
         <f>$D$17-D18</f>
         <v>2.1059999999999945</v>
       </c>
-      <c r="G18" s="6">
-        <f t="shared" ref="G18:G47" si="0">(D18-$B$7)/($B$7-$B$5)</f>
-        <v>0.28067147607377502</v>
-      </c>
-      <c r="H18" s="8">
-        <f t="shared" ref="H18:H50" si="1">(D18-$B$7)/$D$11</f>
-        <v>0.41701672910963905</v>
+      <c r="G18" s="8">
+        <f t="shared" ref="G18:G50" si="0">(D18-$D$13-$B$7)/($B$7-$B$5)</f>
+        <v>0.25583054318686521</v>
+      </c>
+      <c r="H18" s="7">
+        <f t="shared" ref="H18:H50" si="1">G18*$B$13</f>
+        <v>0.38010850913145972</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -847,13 +858,13 @@
         <f t="shared" ref="F19:F47" si="2">$D$17-D19</f>
         <v>10.020999999999958</v>
       </c>
-      <c r="G19" s="6">
-        <f t="shared" si="0"/>
-        <v>0.2692879661270467</v>
-      </c>
-      <c r="H19" s="8">
-        <f t="shared" si="1"/>
-        <v>0.40010331079518274</v>
+      <c r="G19" s="8">
+        <f t="shared" si="0"/>
+        <v>0.24444703324013692</v>
+      </c>
+      <c r="H19" s="7">
+        <f t="shared" si="1"/>
+        <v>0.36319509081700341</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -864,13 +875,13 @@
         <f t="shared" si="2"/>
         <v>2.1849999999999454</v>
       </c>
-      <c r="G20" s="6">
-        <f t="shared" si="0"/>
-        <v>0.28055785670728212</v>
-      </c>
-      <c r="H20" s="8">
-        <f t="shared" si="1"/>
-        <v>0.41684791545874311</v>
+      <c r="G20" s="8">
+        <f t="shared" si="0"/>
+        <v>0.25571692382037231</v>
+      </c>
+      <c r="H20" s="7">
+        <f t="shared" si="1"/>
+        <v>0.37993969548056372</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -887,13 +898,13 @@
         <f t="shared" si="2"/>
         <v>1.7039999999999509</v>
       </c>
-      <c r="G21" s="6">
-        <f t="shared" si="0"/>
-        <v>0.28124964044504286</v>
-      </c>
-      <c r="H21" s="8">
-        <f t="shared" si="1"/>
-        <v>0.41787575553571765</v>
+      <c r="G21" s="8">
+        <f t="shared" si="0"/>
+        <v>0.25640870755813305</v>
+      </c>
+      <c r="H21" s="7">
+        <f t="shared" si="1"/>
+        <v>0.38096753555753826</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -916,13 +927,13 @@
         <f t="shared" si="2"/>
         <v>19.91599999999994</v>
       </c>
-      <c r="G22" s="6">
-        <f t="shared" si="0"/>
-        <v>0.25505678091885003</v>
-      </c>
-      <c r="H22" s="8">
-        <f t="shared" si="1"/>
-        <v>0.37895886680004115</v>
+      <c r="G22" s="8">
+        <f t="shared" si="0"/>
+        <v>0.23021584803194023</v>
+      </c>
+      <c r="H22" s="7">
+        <f t="shared" si="1"/>
+        <v>0.34205064682186181</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -933,13 +944,13 @@
         <f t="shared" si="2"/>
         <v>1.6269999999999527</v>
       </c>
-      <c r="G23" s="6">
-        <f t="shared" si="0"/>
-        <v>0.28136038337187774</v>
-      </c>
-      <c r="H23" s="8">
-        <f t="shared" si="1"/>
-        <v>0.41804029542329985</v>
+      <c r="G23" s="8">
+        <f t="shared" si="0"/>
+        <v>0.25651945048496794</v>
+      </c>
+      <c r="H23" s="7">
+        <f t="shared" si="1"/>
+        <v>0.38113207544512046</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -959,13 +970,13 @@
         <f t="shared" si="2"/>
         <v>11.644999999999982</v>
       </c>
-      <c r="G24" s="6">
-        <f t="shared" si="0"/>
-        <v>0.26695229712471102</v>
-      </c>
-      <c r="H24" s="8">
-        <f t="shared" si="1"/>
-        <v>0.39663301498435799</v>
+      <c r="G24" s="8">
+        <f t="shared" si="0"/>
+        <v>0.24211136423780119</v>
+      </c>
+      <c r="H24" s="7">
+        <f t="shared" si="1"/>
+        <v>0.35972479500617865</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -985,13 +996,13 @@
         <f t="shared" si="2"/>
         <v>24.682999999999993</v>
       </c>
-      <c r="G25" s="6">
-        <f t="shared" si="0"/>
-        <v>0.2482007869938905</v>
-      </c>
-      <c r="H25" s="8">
-        <f t="shared" si="1"/>
-        <v>0.36877235194154279</v>
+      <c r="G25" s="8">
+        <f t="shared" si="0"/>
+        <v>0.2233598541069807</v>
+      </c>
+      <c r="H25" s="7">
+        <f t="shared" si="1"/>
+        <v>0.3318641319633634</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1008,13 +1019,13 @@
         <f t="shared" si="2"/>
         <v>30.699000000000069</v>
       </c>
-      <c r="G26" s="6">
-        <f t="shared" si="0"/>
-        <v>0.23954845650247947</v>
-      </c>
-      <c r="H26" s="8">
-        <f t="shared" si="1"/>
-        <v>0.35591687189356164</v>
+      <c r="G26" s="8">
+        <f t="shared" si="0"/>
+        <v>0.21470752361556966</v>
+      </c>
+      <c r="H26" s="7">
+        <f t="shared" si="1"/>
+        <v>0.3190086519153823</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1025,13 +1036,13 @@
         <f t="shared" si="2"/>
         <v>1.6010000000001128</v>
       </c>
-      <c r="G27" s="6">
-        <f t="shared" si="0"/>
-        <v>0.28139777708743219</v>
-      </c>
-      <c r="H27" s="8">
-        <f t="shared" si="1"/>
-        <v>0.41809585434637919</v>
+      <c r="G27" s="8">
+        <f t="shared" si="0"/>
+        <v>0.25655684420052238</v>
+      </c>
+      <c r="H27" s="7">
+        <f t="shared" si="1"/>
+        <v>0.38118763436819991</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1054,13 +1065,13 @@
         <f t="shared" si="2"/>
         <v>7.4220000000000255</v>
       </c>
-      <c r="G28" s="6">
-        <f t="shared" si="0"/>
-        <v>0.27302589946268108</v>
-      </c>
-      <c r="H28" s="8">
-        <f t="shared" si="1"/>
-        <v>0.40565706622149617</v>
+      <c r="G28" s="8">
+        <f t="shared" si="0"/>
+        <v>0.2481849665757713</v>
+      </c>
+      <c r="H28" s="7">
+        <f t="shared" si="1"/>
+        <v>0.36874884624331683</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1077,13 +1088,13 @@
         <f t="shared" si="2"/>
         <v>14.856999999999971</v>
       </c>
-      <c r="G29" s="6">
-        <f t="shared" si="0"/>
-        <v>0.26233273503388455</v>
-      </c>
-      <c r="H29" s="8">
-        <f t="shared" si="1"/>
-        <v>0.38976935110235755</v>
+      <c r="G29" s="8">
+        <f t="shared" si="0"/>
+        <v>0.23749180214697477</v>
+      </c>
+      <c r="H29" s="7">
+        <f t="shared" si="1"/>
+        <v>0.35286113112417822</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1094,13 +1105,13 @@
         <f t="shared" si="2"/>
         <v>1.7400000000000091</v>
       </c>
-      <c r="G30" s="6">
-        <f t="shared" si="0"/>
-        <v>0.28119786453119794</v>
-      </c>
-      <c r="H30" s="8">
-        <f t="shared" si="1"/>
-        <v>0.41779882779606869</v>
+      <c r="G30" s="8">
+        <f t="shared" si="0"/>
+        <v>0.25635693164428813</v>
+      </c>
+      <c r="H30" s="7">
+        <f t="shared" si="1"/>
+        <v>0.38089060781788936</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1123,13 +1134,13 @@
         <f t="shared" si="2"/>
         <v>59.276000000000067</v>
       </c>
-      <c r="G31" s="6">
-        <f t="shared" si="0"/>
-        <v>0.19844844844844842</v>
-      </c>
-      <c r="H31" s="8">
-        <f t="shared" si="1"/>
-        <v>0.29485120478399496</v>
+      <c r="G31" s="8">
+        <f t="shared" si="0"/>
+        <v>0.17360751556153861</v>
+      </c>
+      <c r="H31" s="7">
+        <f t="shared" si="1"/>
+        <v>0.25794298480581562</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1140,13 +1151,13 @@
         <f t="shared" si="2"/>
         <v>12.73700000000008</v>
       </c>
-      <c r="G32" s="6">
-        <f t="shared" si="0"/>
-        <v>0.2653817610714162</v>
-      </c>
-      <c r="H32" s="8">
-        <f t="shared" si="1"/>
-        <v>0.39429954021501018</v>
+      <c r="G32" s="8">
+        <f t="shared" si="0"/>
+        <v>0.24054082818450639</v>
+      </c>
+      <c r="H32" s="7">
+        <f t="shared" si="1"/>
+        <v>0.35739132023683085</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1169,13 +1180,13 @@
         <f t="shared" si="2"/>
         <v>32.461000000000013</v>
       </c>
-      <c r="G33" s="6">
-        <f t="shared" si="0"/>
-        <v>0.2370143131637385</v>
-      </c>
-      <c r="H33" s="8">
-        <f t="shared" si="1"/>
-        <v>0.35215168641408329</v>
+      <c r="G33" s="8">
+        <f t="shared" si="0"/>
+        <v>0.21217338027682869</v>
+      </c>
+      <c r="H33" s="7">
+        <f t="shared" si="1"/>
+        <v>0.31524346643590395</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1195,13 +1206,13 @@
         <f t="shared" si="2"/>
         <v>48.788999999999987</v>
       </c>
-      <c r="G34" s="6">
-        <f t="shared" si="0"/>
-        <v>0.21353105979542769</v>
-      </c>
-      <c r="H34" s="8">
-        <f t="shared" si="1"/>
-        <v>0.3172606827200285</v>
+      <c r="G34" s="8">
+        <f t="shared" si="0"/>
+        <v>0.18869012690851789</v>
+      </c>
+      <c r="H34" s="7">
+        <f t="shared" si="1"/>
+        <v>0.28035246274184916</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1218,13 +1229,13 @@
         <f t="shared" si="2"/>
         <v>55.863000000000056</v>
       </c>
-      <c r="G35" s="6">
-        <f t="shared" si="0"/>
-        <v>0.20335709272490879</v>
-      </c>
-      <c r="H35" s="8">
-        <f t="shared" si="1"/>
-        <v>0.30214438187903475</v>
+      <c r="G35" s="8">
+        <f t="shared" si="0"/>
+        <v>0.17851615983799898</v>
+      </c>
+      <c r="H35" s="7">
+        <f t="shared" si="1"/>
+        <v>0.26523616190085542</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1235,13 +1246,13 @@
         <f t="shared" si="2"/>
         <v>13.11200000000008</v>
       </c>
-      <c r="G36" s="6">
-        <f t="shared" si="0"/>
-        <v>0.26484242863553203</v>
-      </c>
-      <c r="H36" s="8">
-        <f t="shared" si="1"/>
-        <v>0.39349820959366827</v>
+      <c r="G36" s="8">
+        <f t="shared" si="0"/>
+        <v>0.24000149574862223</v>
+      </c>
+      <c r="H36" s="7">
+        <f t="shared" si="1"/>
+        <v>0.35658998961548893</v>
       </c>
     </row>
     <row r="37" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1261,13 +1272,13 @@
         <f t="shared" si="2"/>
         <v>52.478000000000065</v>
       </c>
-      <c r="G37" s="6">
-        <f t="shared" si="0"/>
-        <v>0.20822546684615648</v>
-      </c>
-      <c r="H37" s="8">
-        <f t="shared" si="1"/>
-        <v>0.30937772628768095</v>
+      <c r="G37" s="8">
+        <f t="shared" si="0"/>
+        <v>0.18338453395924667</v>
+      </c>
+      <c r="H37" s="7">
+        <f t="shared" si="1"/>
+        <v>0.27246950630950162</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1290,13 +1301,13 @@
         <f t="shared" si="2"/>
         <v>85.901000000000067</v>
       </c>
-      <c r="G38" s="6">
-        <f t="shared" si="0"/>
-        <v>0.16015584550067305</v>
-      </c>
-      <c r="H38" s="8">
-        <f t="shared" si="1"/>
-        <v>0.23795673066872003</v>
+      <c r="G38" s="8">
+        <f t="shared" si="0"/>
+        <v>0.13531491261376324</v>
+      </c>
+      <c r="H38" s="7">
+        <f t="shared" si="1"/>
+        <v>0.20104851069054067</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1307,13 +1318,13 @@
         <f t="shared" si="2"/>
         <v>15.371000000000095</v>
       </c>
-      <c r="G39" s="6">
-        <f t="shared" si="0"/>
-        <v>0.26159349004176585</v>
-      </c>
-      <c r="H39" s="8">
-        <f t="shared" si="1"/>
-        <v>0.38867099393070464</v>
+      <c r="G39" s="8">
+        <f t="shared" si="0"/>
+        <v>0.23675255715485602</v>
+      </c>
+      <c r="H39" s="7">
+        <f t="shared" si="1"/>
+        <v>0.35176277395252531</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1333,13 +1344,13 @@
         <f t="shared" si="2"/>
         <v>30.087999999999965</v>
       </c>
-      <c r="G40" s="6">
-        <f t="shared" si="0"/>
-        <v>0.24042720881801352</v>
-      </c>
-      <c r="H40" s="8">
-        <f t="shared" si="1"/>
-        <v>0.35722250658593491</v>
+      <c r="G40" s="8">
+        <f t="shared" si="0"/>
+        <v>0.21558627593110372</v>
+      </c>
+      <c r="H40" s="7">
+        <f t="shared" si="1"/>
+        <v>0.32031428660775557</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1362,13 +1373,13 @@
         <f t="shared" si="2"/>
         <v>48.583000000000084</v>
       </c>
-      <c r="G41" s="6">
-        <f t="shared" si="0"/>
-        <v>0.2138273330802066</v>
-      </c>
-      <c r="H41" s="8">
-        <f t="shared" si="1"/>
-        <v>0.31770088034135213</v>
+      <c r="G41" s="8">
+        <f t="shared" si="0"/>
+        <v>0.18898640019329679</v>
+      </c>
+      <c r="H41" s="7">
+        <f t="shared" si="1"/>
+        <v>0.2807926603631728</v>
       </c>
     </row>
     <row r="42" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1382,13 +1393,13 @@
         <f t="shared" si="2"/>
         <v>49.125999999999976</v>
       </c>
-      <c r="G42" s="6">
-        <f t="shared" si="0"/>
-        <v>0.21304637971304646</v>
-      </c>
-      <c r="H42" s="8">
-        <f t="shared" si="1"/>
-        <v>0.31654055360164929</v>
+      <c r="G42" s="8">
+        <f t="shared" si="0"/>
+        <v>0.18820544682613669</v>
+      </c>
+      <c r="H42" s="7">
+        <f t="shared" si="1"/>
+        <v>0.27963233362346995</v>
       </c>
     </row>
     <row r="43" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1411,13 +1422,13 @@
         <f t="shared" si="2"/>
         <v>62.618999999999915</v>
       </c>
-      <c r="G43" s="6">
-        <f t="shared" si="0"/>
-        <v>0.19364047956001998</v>
-      </c>
-      <c r="H43" s="8">
-        <f t="shared" si="1"/>
-        <v>0.28770760940493939</v>
+      <c r="G43" s="8">
+        <f t="shared" si="0"/>
+        <v>0.16879954667311017</v>
+      </c>
+      <c r="H43" s="7">
+        <f t="shared" si="1"/>
+        <v>0.25079938942676006</v>
       </c>
     </row>
     <row r="44" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1428,13 +1439,13 @@
         <f t="shared" si="2"/>
         <v>16.500999999999976</v>
       </c>
-      <c r="G44" s="6">
-        <f t="shared" si="0"/>
-        <v>0.25996830163496842</v>
-      </c>
-      <c r="H44" s="8">
-        <f t="shared" si="1"/>
-        <v>0.38625631765839463</v>
+      <c r="G44" s="8">
+        <f t="shared" si="0"/>
+        <v>0.23512736874805859</v>
+      </c>
+      <c r="H44" s="7">
+        <f t="shared" si="1"/>
+        <v>0.3493480976802153</v>
       </c>
     </row>
     <row r="45" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1457,20 +1468,20 @@
         <f t="shared" si="2"/>
         <v>26.710000000000036</v>
       </c>
-      <c r="G45" s="6">
-        <f t="shared" si="0"/>
-        <v>0.24528551540045795</v>
-      </c>
-      <c r="H45" s="8">
-        <f t="shared" si="1"/>
-        <v>0.36444089282298259</v>
+      <c r="G45" s="8">
+        <f t="shared" si="0"/>
+        <v>0.22044458251354815</v>
+      </c>
+      <c r="H45" s="7">
+        <f t="shared" si="1"/>
+        <v>0.32753267284480331</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B46" s="7">
+      <c r="B46" s="6">
         <v>0.3923611111111111</v>
       </c>
       <c r="C46" s="1">
@@ -1486,17 +1497,17 @@
         <f t="shared" si="2"/>
         <v>37.980999999999995</v>
       </c>
-      <c r="G46" s="2">
-        <f t="shared" si="0"/>
-        <v>0.2290753397075237</v>
-      </c>
-      <c r="H46" s="8">
-        <f t="shared" si="1"/>
-        <v>0.34035609966793051</v>
+      <c r="G46" s="8">
+        <f t="shared" si="0"/>
+        <v>0.20423440682061389</v>
+      </c>
+      <c r="H46" s="7">
+        <f t="shared" si="1"/>
+        <v>0.30344787968975118</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="7">
+      <c r="B47" s="6">
         <v>0.5</v>
       </c>
       <c r="D47" s="1">
@@ -1506,13 +1517,13 @@
         <f t="shared" si="2"/>
         <v>18.925999999999931</v>
       </c>
-      <c r="G47" s="2">
-        <f t="shared" si="0"/>
-        <v>0.25648061854958421</v>
-      </c>
-      <c r="H47" s="8">
-        <f t="shared" si="1"/>
-        <v>0.38107437964038376</v>
+      <c r="G47" s="8">
+        <f t="shared" si="0"/>
+        <v>0.23163968566267443</v>
+      </c>
+      <c r="H47" s="7">
+        <f t="shared" si="1"/>
+        <v>0.34416615966220443</v>
       </c>
     </row>
     <row r="48" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1532,13 +1543,13 @@
         <f>$D$17-D48</f>
         <v>40.409000000000106</v>
       </c>
-      <c r="G48" s="6">
-        <f>(D48-$B$7)/($B$7-$B$5)</f>
-        <v>0.22558334196265223</v>
-      </c>
-      <c r="H48" s="8">
-        <f t="shared" si="1"/>
-        <v>0.33516775100494861</v>
+      <c r="G48" s="8">
+        <f t="shared" si="0"/>
+        <v>0.20074240907574242</v>
+      </c>
+      <c r="H48" s="7">
+        <f t="shared" si="1"/>
+        <v>0.29825953102676928</v>
       </c>
     </row>
     <row r="49" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1561,13 +1572,13 @@
         <f>$D$17-D49</f>
         <v>46.467000000000098</v>
       </c>
-      <c r="G49" s="6">
-        <f>(D49-$B$7)/($B$7-$B$5)</f>
-        <v>0.21687060623842225</v>
-      </c>
-      <c r="H49" s="8">
-        <f t="shared" si="1"/>
-        <v>0.32222252192737733</v>
+      <c r="G49" s="8">
+        <f t="shared" si="0"/>
+        <v>0.19202967335151244</v>
+      </c>
+      <c r="H49" s="7">
+        <f t="shared" si="1"/>
+        <v>0.28531430194919799</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1584,13 +1595,13 @@
         <f>$D$17-D50</f>
         <v>46.745000000000118</v>
       </c>
-      <c r="G50" s="6">
-        <f>(D50-$B$7)/($B$7-$B$5)</f>
-        <v>0.21647078112595344</v>
-      </c>
-      <c r="H50" s="8">
-        <f t="shared" si="1"/>
-        <v>0.32162846882675583</v>
+      <c r="G50" s="8">
+        <f t="shared" si="0"/>
+        <v>0.19162984823904364</v>
+      </c>
+      <c r="H50" s="7">
+        <f t="shared" si="1"/>
+        <v>0.2847202488485765</v>
       </c>
     </row>
     <row r="51" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1688,7 +1699,7 @@
       <c r="A67" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B67" s="7"/>
+      <c r="B67" s="6"/>
       <c r="D67" s="1">
         <v>9.5000000000000001E-2</v>
       </c>
@@ -1707,7 +1718,7 @@
   <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H17" sqref="H15:H17"/>
+      <selection activeCell="G17" sqref="G17:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1795,6 +1806,13 @@
         <f>(B7-B5)/D11</f>
         <v>1.4858799670908756</v>
       </c>
+      <c r="C13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="1">
+        <f>D17-B9</f>
+        <v>9.2989999999999782</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H15" t="s">
@@ -1846,13 +1864,13 @@
       <c r="F17" s="4">
         <v>0</v>
       </c>
-      <c r="G17" s="6">
-        <f>(D17-$B$7)/($B$7-$B$5)</f>
-        <v>0.27184658171984083</v>
-      </c>
-      <c r="H17" s="8">
-        <f>(D17-$B$7)/$D$11</f>
-        <v>0.40393138989964411</v>
+      <c r="G17" s="8">
+        <f>(D17-$D$13-$B$7)/($B$7-$B$5)</f>
+        <v>0.25811201814929746</v>
+      </c>
+      <c r="H17" s="7">
+        <f>G17*$B$13</f>
+        <v>0.38352347703343759</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1875,13 +1893,13 @@
         <f>$D$17-D18</f>
         <v>-0.47199999999997999</v>
       </c>
-      <c r="G18" s="6">
-        <f t="shared" ref="G18:G46" si="0">(D18-$B$7)/($B$7-$B$5)</f>
-        <v>0.27254372270331179</v>
-      </c>
-      <c r="H18" s="8">
-        <f t="shared" ref="H18:H53" si="1">(D18-$B$7)/$D$11</f>
-        <v>0.40496725772122161</v>
+      <c r="G18" s="8">
+        <f t="shared" ref="G18:G53" si="0">(D18-$D$13-$B$7)/($B$7-$B$5)</f>
+        <v>0.25880915913276836</v>
+      </c>
+      <c r="H18" s="7">
+        <f t="shared" ref="H18:H53" si="1">G18*$B$13</f>
+        <v>0.38455934485501503</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1904,13 +1922,13 @@
         <f t="shared" ref="F19:F46" si="2">$D$17-D19</f>
         <v>7.7580000000000382</v>
       </c>
-      <c r="G19" s="6">
-        <f t="shared" si="0"/>
-        <v>0.26038806530084135</v>
-      </c>
-      <c r="H19" s="8">
-        <f t="shared" si="1"/>
-        <v>0.38690540990007088</v>
+      <c r="G19" s="8">
+        <f t="shared" si="0"/>
+        <v>0.24665350173029793</v>
+      </c>
+      <c r="H19" s="7">
+        <f t="shared" si="1"/>
+        <v>0.36649749703386431</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1921,13 +1939,13 @@
         <f t="shared" si="2"/>
         <v>-0.35999999999989996</v>
       </c>
-      <c r="G20" s="6">
-        <f t="shared" si="0"/>
-        <v>0.27237829941909819</v>
-      </c>
-      <c r="H20" s="8">
-        <f t="shared" si="1"/>
-        <v>0.40472145857711828</v>
+      <c r="G20" s="8">
+        <f t="shared" si="0"/>
+        <v>0.25864373584855482</v>
+      </c>
+      <c r="H20" s="7">
+        <f t="shared" si="1"/>
+        <v>0.38431354571091175</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1950,13 +1968,13 @@
         <f t="shared" si="2"/>
         <v>12.722999999999956</v>
       </c>
-      <c r="G21" s="6">
-        <f t="shared" si="0"/>
-        <v>0.25305479203191489</v>
-      </c>
-      <c r="H21" s="8">
-        <f t="shared" si="1"/>
-        <v>0.37600904605657004</v>
+      <c r="G21" s="8">
+        <f t="shared" si="0"/>
+        <v>0.23932022846137149</v>
+      </c>
+      <c r="H21" s="7">
+        <f t="shared" si="1"/>
+        <v>0.35560113319036352</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1967,13 +1985,13 @@
         <f t="shared" si="2"/>
         <v>-3.8999999999987267E-2</v>
       </c>
-      <c r="G22" s="6">
-        <f t="shared" si="0"/>
-        <v>0.27190418447059372</v>
-      </c>
-      <c r="H22" s="8">
-        <f t="shared" si="1"/>
-        <v>0.40401698067303715</v>
+      <c r="G22" s="8">
+        <f t="shared" si="0"/>
+        <v>0.2581696209000503</v>
+      </c>
+      <c r="H22" s="7">
+        <f t="shared" si="1"/>
+        <v>0.38360906780683057</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1993,13 +2011,13 @@
         <f t="shared" si="2"/>
         <v>7.0950000000000273</v>
       </c>
-      <c r="G23" s="6">
-        <f t="shared" si="0"/>
-        <v>0.26136731206364061</v>
-      </c>
-      <c r="H23" s="8">
-        <f t="shared" si="1"/>
-        <v>0.38836045304775291</v>
+      <c r="G23" s="8">
+        <f t="shared" si="0"/>
+        <v>0.24763274849309722</v>
+      </c>
+      <c r="H23" s="7">
+        <f t="shared" si="1"/>
+        <v>0.36795254018154633</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2019,13 +2037,13 @@
         <f t="shared" si="2"/>
         <v>12.1400000000001</v>
       </c>
-      <c r="G24" s="6">
-        <f t="shared" si="0"/>
-        <v>0.25391587930599002</v>
-      </c>
-      <c r="H24" s="8">
-        <f t="shared" si="1"/>
-        <v>0.3772885183870352</v>
+      <c r="G24" s="8">
+        <f t="shared" si="0"/>
+        <v>0.24018131573544665</v>
+      </c>
+      <c r="H24" s="7">
+        <f t="shared" si="1"/>
+        <v>0.35688060552082868</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2040,13 +2058,13 @@
         <f t="shared" si="2"/>
         <v>14.307000000000016</v>
       </c>
-      <c r="G25" s="6">
-        <f t="shared" si="0"/>
-        <v>0.25071523415518171</v>
-      </c>
-      <c r="H25" s="8">
-        <f t="shared" si="1"/>
-        <v>0.37253274387568258</v>
+      <c r="G25" s="8">
+        <f t="shared" si="0"/>
+        <v>0.23698067058463834</v>
+      </c>
+      <c r="H25" s="7">
+        <f t="shared" si="1"/>
+        <v>0.35212483100947606</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2063,13 +2081,13 @@
         <f t="shared" si="2"/>
         <v>15.94399999999996</v>
       </c>
-      <c r="G26" s="6">
-        <f t="shared" si="0"/>
-        <v>0.24829739561716918</v>
-      </c>
-      <c r="H26" s="8">
-        <f t="shared" si="1"/>
-        <v>0.36894012602838944</v>
+      <c r="G26" s="8">
+        <f t="shared" si="0"/>
+        <v>0.23456283204662576</v>
+      </c>
+      <c r="H26" s="7">
+        <f t="shared" si="1"/>
+        <v>0.34853221316218286</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2080,13 +2098,13 @@
         <f t="shared" si="2"/>
         <v>1.0999999999967258E-2</v>
       </c>
-      <c r="G27" s="6">
-        <f t="shared" si="0"/>
-        <v>0.27183033479014135</v>
-      </c>
-      <c r="H27" s="8">
-        <f t="shared" si="1"/>
-        <v>0.40390724891227692</v>
+      <c r="G27" s="8">
+        <f t="shared" si="0"/>
+        <v>0.25809577121959798</v>
+      </c>
+      <c r="H27" s="7">
+        <f t="shared" si="1"/>
+        <v>0.38349933604607039</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2106,13 +2124,13 @@
         <f t="shared" si="2"/>
         <v>7.0180000000000291</v>
       </c>
-      <c r="G28" s="6">
-        <f t="shared" si="0"/>
-        <v>0.26148104057153737</v>
-      </c>
-      <c r="H28" s="8">
-        <f t="shared" si="1"/>
-        <v>0.38852943995932382</v>
+      <c r="G28" s="8">
+        <f t="shared" si="0"/>
+        <v>0.24774647700099395</v>
+      </c>
+      <c r="H28" s="7">
+        <f t="shared" si="1"/>
+        <v>0.36812152709311724</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2129,13 +2147,13 @@
         <f t="shared" si="2"/>
         <v>9.1340000000000146</v>
       </c>
-      <c r="G29" s="6">
-        <f t="shared" si="0"/>
-        <v>0.25835572209479041</v>
-      </c>
-      <c r="H29" s="8">
-        <f t="shared" si="1"/>
-        <v>0.38388559184394655</v>
+      <c r="G29" s="8">
+        <f t="shared" si="0"/>
+        <v>0.24462115852424701</v>
+      </c>
+      <c r="H29" s="7">
+        <f t="shared" si="1"/>
+        <v>0.36347767897774003</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2146,13 +2164,13 @@
         <f t="shared" si="2"/>
         <v>0.24499999999989086</v>
       </c>
-      <c r="G30" s="6">
-        <f t="shared" si="0"/>
-        <v>0.27148471828562409</v>
-      </c>
-      <c r="H30" s="8">
-        <f t="shared" si="1"/>
-        <v>0.40339370427191873</v>
+      <c r="G30" s="8">
+        <f t="shared" si="0"/>
+        <v>0.25775015471508067</v>
+      </c>
+      <c r="H30" s="7">
+        <f t="shared" si="1"/>
+        <v>0.38298579140571215</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2175,13 +2193,13 @@
         <f t="shared" si="2"/>
         <v>18.399000000000115</v>
       </c>
-      <c r="G31" s="6">
-        <f t="shared" si="0"/>
-        <v>0.24467137630695449</v>
-      </c>
-      <c r="H31" s="8">
-        <f t="shared" si="1"/>
-        <v>0.36355229657505678</v>
+      <c r="G31" s="8">
+        <f t="shared" si="0"/>
+        <v>0.23093681273641109</v>
+      </c>
+      <c r="H31" s="7">
+        <f t="shared" si="1"/>
+        <v>0.3431443837088502</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2192,13 +2210,13 @@
         <f t="shared" si="2"/>
         <v>1.7049999999999272</v>
       </c>
-      <c r="G32" s="6">
-        <f t="shared" si="0"/>
-        <v>0.26932830761641302</v>
-      </c>
-      <c r="H32" s="8">
-        <f t="shared" si="1"/>
-        <v>0.40018953685771691</v>
+      <c r="G32" s="8">
+        <f t="shared" si="0"/>
+        <v>0.2555937440458696</v>
+      </c>
+      <c r="H32" s="7">
+        <f t="shared" si="1"/>
+        <v>0.37978162399151039</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2218,13 +2236,13 @@
         <f t="shared" si="2"/>
         <v>8.7429999999999382</v>
       </c>
-      <c r="G33" s="6">
-        <f t="shared" si="0"/>
-        <v>0.25893322659592855</v>
-      </c>
-      <c r="H33" s="8">
-        <f t="shared" si="1"/>
-        <v>0.38474369421309251</v>
+      <c r="G33" s="8">
+        <f t="shared" si="0"/>
+        <v>0.24519866302538515</v>
+      </c>
+      <c r="H33" s="7">
+        <f t="shared" si="1"/>
+        <v>0.36433578134688599</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2244,13 +2262,13 @@
         <f t="shared" si="2"/>
         <v>12.958000000000084</v>
       </c>
-      <c r="G34" s="6">
-        <f t="shared" si="0"/>
-        <v>0.25270769853378827</v>
-      </c>
-      <c r="H34" s="8">
-        <f t="shared" si="1"/>
-        <v>0.37549330678099618</v>
+      <c r="G34" s="8">
+        <f t="shared" si="0"/>
+        <v>0.23897313496324488</v>
+      </c>
+      <c r="H34" s="7">
+        <f t="shared" si="1"/>
+        <v>0.35508539391478966</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2267,13 +2285,13 @@
         <f t="shared" si="2"/>
         <v>14.029999999999973</v>
       </c>
-      <c r="G35" s="6">
-        <f t="shared" si="0"/>
-        <v>0.25112436138488825</v>
-      </c>
-      <c r="H35" s="8">
-        <f t="shared" si="1"/>
-        <v>0.37314065783029493</v>
+      <c r="G35" s="8">
+        <f t="shared" si="0"/>
+        <v>0.23738979781434488</v>
+      </c>
+      <c r="H35" s="7">
+        <f t="shared" si="1"/>
+        <v>0.35273274496408835</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2284,13 +2302,13 @@
         <f t="shared" si="2"/>
         <v>2.2989999999999782</v>
       </c>
-      <c r="G36" s="6">
-        <f t="shared" si="0"/>
-        <v>0.26845097341263802</v>
-      </c>
-      <c r="H36" s="8">
-        <f t="shared" si="1"/>
-        <v>0.39888592353988406</v>
+      <c r="G36" s="8">
+        <f t="shared" si="0"/>
+        <v>0.25471640984209465</v>
+      </c>
+      <c r="H36" s="7">
+        <f t="shared" si="1"/>
+        <v>0.37847801067367759</v>
       </c>
     </row>
     <row r="37" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2310,13 +2328,13 @@
         <f t="shared" si="2"/>
         <v>12.365000000000009</v>
       </c>
-      <c r="G37" s="6">
-        <f t="shared" si="0"/>
-        <v>0.25358355574395425</v>
-      </c>
-      <c r="H37" s="8">
-        <f t="shared" si="1"/>
-        <v>0.37679472546361392</v>
+      <c r="G37" s="8">
+        <f t="shared" si="0"/>
+        <v>0.23984899217341082</v>
+      </c>
+      <c r="H37" s="7">
+        <f t="shared" si="1"/>
+        <v>0.35638681259740734</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2339,13 +2357,13 @@
         <f t="shared" si="2"/>
         <v>19.753999999999905</v>
       </c>
-      <c r="G38" s="6">
-        <f t="shared" si="0"/>
-        <v>0.24267004996669389</v>
-      </c>
-      <c r="H38" s="8">
-        <f t="shared" si="1"/>
-        <v>0.36057856585845222</v>
+      <c r="G38" s="8">
+        <f t="shared" si="0"/>
+        <v>0.22893548639615049</v>
+      </c>
+      <c r="H38" s="7">
+        <f t="shared" si="1"/>
+        <v>0.34017065299224569</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2356,13 +2374,13 @@
         <f t="shared" si="2"/>
         <v>2.3119999999998981</v>
       </c>
-      <c r="G39" s="6">
-        <f t="shared" si="0"/>
-        <v>0.26843177249572048</v>
-      </c>
-      <c r="H39" s="8">
-        <f t="shared" si="1"/>
-        <v>0.39885739328208658</v>
+      <c r="G39" s="8">
+        <f t="shared" si="0"/>
+        <v>0.25469720892517711</v>
+      </c>
+      <c r="H39" s="7">
+        <f t="shared" si="1"/>
+        <v>0.37844948041588</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2382,13 +2400,13 @@
         <f t="shared" si="2"/>
         <v>8.16599999999994</v>
       </c>
-      <c r="G40" s="6">
-        <f t="shared" si="0"/>
-        <v>0.25978545190834962</v>
-      </c>
-      <c r="H40" s="8">
-        <f t="shared" si="1"/>
-        <v>0.38600999873226677</v>
+      <c r="G40" s="8">
+        <f t="shared" si="0"/>
+        <v>0.24605088833780622</v>
+      </c>
+      <c r="H40" s="7">
+        <f t="shared" si="1"/>
+        <v>0.36560208586606019</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2408,13 +2426,13 @@
         <f t="shared" si="2"/>
         <v>12.001999999999953</v>
       </c>
-      <c r="G41" s="6">
-        <f t="shared" si="0"/>
-        <v>0.25411970442403897</v>
-      </c>
-      <c r="H41" s="8">
-        <f t="shared" si="1"/>
-        <v>0.37759137804673404</v>
+      <c r="G41" s="8">
+        <f t="shared" si="0"/>
+        <v>0.24038514085349558</v>
+      </c>
+      <c r="H41" s="7">
+        <f t="shared" si="1"/>
+        <v>0.35718346518052752</v>
       </c>
     </row>
     <row r="42" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2437,13 +2455,13 @@
         <f t="shared" si="2"/>
         <v>16.757000000000062</v>
       </c>
-      <c r="G42" s="6">
-        <f t="shared" si="0"/>
-        <v>0.24709659981301246</v>
-      </c>
-      <c r="H42" s="8">
-        <f t="shared" si="1"/>
-        <v>0.36715588759842621</v>
+      <c r="G42" s="8">
+        <f t="shared" si="0"/>
+        <v>0.23336203624246907</v>
+      </c>
+      <c r="H42" s="7">
+        <f t="shared" si="1"/>
+        <v>0.34674797473221963</v>
       </c>
     </row>
     <row r="43" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2454,13 +2472,13 @@
         <f t="shared" si="2"/>
         <v>7.4329999999999927</v>
       </c>
-      <c r="G43" s="6">
-        <f t="shared" si="0"/>
-        <v>0.26086808822378221</v>
-      </c>
-      <c r="H43" s="8">
-        <f t="shared" si="1"/>
-        <v>0.38761866634501313</v>
+      <c r="G43" s="8">
+        <f t="shared" si="0"/>
+        <v>0.24713352465323882</v>
+      </c>
+      <c r="H43" s="7">
+        <f t="shared" si="1"/>
+        <v>0.36721075347880655</v>
       </c>
     </row>
     <row r="44" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2480,20 +2498,20 @@
         <f t="shared" si="2"/>
         <v>8.5240000000001146</v>
       </c>
-      <c r="G44" s="6">
-        <f t="shared" si="0"/>
-        <v>0.25925668819630993</v>
-      </c>
-      <c r="H44" s="8">
-        <f t="shared" si="1"/>
-        <v>0.38522431932522239</v>
+      <c r="G44" s="8">
+        <f t="shared" si="0"/>
+        <v>0.24552212462576656</v>
+      </c>
+      <c r="H44" s="7">
+        <f t="shared" si="1"/>
+        <v>0.36481640645901586</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B45" s="7">
+      <c r="B45" s="6">
         <v>0.3923611111111111</v>
       </c>
       <c r="C45" s="1">
@@ -2509,17 +2527,17 @@
         <f t="shared" si="2"/>
         <v>14.817999999999984</v>
       </c>
-      <c r="G45" s="2">
-        <f t="shared" si="0"/>
-        <v>0.24996049042095791</v>
-      </c>
-      <c r="H45" s="8">
-        <f t="shared" si="1"/>
-        <v>0.37141128528071204</v>
+      <c r="G45" s="8">
+        <f t="shared" si="0"/>
+        <v>0.23622592685041452</v>
+      </c>
+      <c r="H45" s="7">
+        <f t="shared" si="1"/>
+        <v>0.35100337241450552</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="7">
+      <c r="B46" s="6">
         <v>0.5</v>
       </c>
       <c r="D46" s="1">
@@ -2529,13 +2547,13 @@
         <f t="shared" si="2"/>
         <v>8.08400000000006</v>
       </c>
-      <c r="G46" s="2">
-        <f t="shared" si="0"/>
-        <v>0.25990656538429141</v>
-      </c>
-      <c r="H46" s="8">
-        <f t="shared" si="1"/>
-        <v>0.38618995881991347</v>
+      <c r="G46" s="8">
+        <f t="shared" si="0"/>
+        <v>0.24617200181374804</v>
+      </c>
+      <c r="H46" s="7">
+        <f t="shared" si="1"/>
+        <v>0.36578204595370689</v>
       </c>
     </row>
     <row r="47" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2555,13 +2573,13 @@
         <f t="shared" ref="F47:F53" si="3">$D$17-D47</f>
         <v>22.386999999999944</v>
       </c>
-      <c r="G47" s="6">
-        <f t="shared" ref="G47:G53" si="4">(D47-$B$7)/($B$7-$B$5)</f>
-        <v>0.23878112579406871</v>
-      </c>
-      <c r="H47" s="8">
-        <f t="shared" si="1"/>
-        <v>0.35480009133681301</v>
+      <c r="G47" s="8">
+        <f t="shared" si="0"/>
+        <v>0.22504656222352531</v>
+      </c>
+      <c r="H47" s="7">
+        <f t="shared" si="1"/>
+        <v>0.33439217847060648</v>
       </c>
     </row>
     <row r="48" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2581,13 +2599,13 @@
         <f t="shared" si="3"/>
         <v>26.304000000000087</v>
       </c>
-      <c r="G48" s="6">
-        <f t="shared" si="4"/>
-        <v>0.23299574182742494</v>
-      </c>
-      <c r="H48" s="8">
-        <f t="shared" si="1"/>
-        <v>0.3462037051988483</v>
+      <c r="G48" s="8">
+        <f t="shared" si="0"/>
+        <v>0.21926117825688154</v>
+      </c>
+      <c r="H48" s="7">
+        <f t="shared" si="1"/>
+        <v>0.32579579233264178</v>
       </c>
     </row>
     <row r="49" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2607,13 +2625,13 @@
         <f t="shared" si="3"/>
         <v>30.960000000000036</v>
       </c>
-      <c r="G49" s="6">
-        <f t="shared" si="4"/>
-        <v>0.22611885958369449</v>
-      </c>
-      <c r="H49" s="8">
-        <f t="shared" si="1"/>
-        <v>0.33598548363684627</v>
+      <c r="G49" s="8">
+        <f t="shared" si="0"/>
+        <v>0.21238429601315106</v>
+      </c>
+      <c r="H49" s="7">
+        <f t="shared" si="1"/>
+        <v>0.31557757077063969</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2633,13 +2651,13 @@
         <f t="shared" si="3"/>
         <v>33.878999999999905</v>
       </c>
-      <c r="G50" s="6">
-        <f t="shared" si="4"/>
-        <v>0.22180751523888165</v>
-      </c>
-      <c r="H50" s="8">
-        <f t="shared" si="1"/>
-        <v>0.32957934344365836</v>
+      <c r="G50" s="8">
+        <f t="shared" si="0"/>
+        <v>0.20807295166833825</v>
+      </c>
+      <c r="H50" s="7">
+        <f t="shared" si="1"/>
+        <v>0.30917143057745178</v>
       </c>
     </row>
     <row r="51" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2659,13 +2677,13 @@
         <f t="shared" si="3"/>
         <v>37.58400000000006</v>
       </c>
-      <c r="G51" s="6">
-        <f t="shared" si="4"/>
-        <v>0.21633525391735617</v>
-      </c>
-      <c r="H51" s="8">
-        <f t="shared" si="1"/>
-        <v>0.32144821997131734</v>
+      <c r="G51" s="8">
+        <f t="shared" si="0"/>
+        <v>0.20260069034681277</v>
+      </c>
+      <c r="H51" s="7">
+        <f t="shared" si="1"/>
+        <v>0.30104030710511082</v>
       </c>
     </row>
     <row r="52" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2685,13 +2703,13 @@
         <f t="shared" si="3"/>
         <v>51.532999999999902</v>
       </c>
-      <c r="G52" s="6">
-        <f t="shared" si="4"/>
-        <v>0.19573267006473671</v>
-      </c>
-      <c r="H52" s="8">
-        <f t="shared" si="1"/>
-        <v>0.29083525335440019</v>
+      <c r="G52" s="8">
+        <f t="shared" si="0"/>
+        <v>0.18199810649419332</v>
+      </c>
+      <c r="H52" s="7">
+        <f t="shared" si="1"/>
+        <v>0.27042734048819361</v>
       </c>
     </row>
     <row r="53" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2711,13 +2729,13 @@
         <f t="shared" si="3"/>
         <v>57.552999999999997</v>
       </c>
-      <c r="G53" s="6">
-        <f t="shared" si="4"/>
-        <v>0.18684116853826369</v>
-      </c>
-      <c r="H53" s="8">
-        <f t="shared" si="1"/>
-        <v>0.27762354935885597</v>
+      <c r="G53" s="8">
+        <f t="shared" si="0"/>
+        <v>0.17310660496772029</v>
+      </c>
+      <c r="H53" s="7">
+        <f t="shared" si="1"/>
+        <v>0.25721563649264945</v>
       </c>
     </row>
     <row r="54" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -2734,7 +2752,7 @@
   <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H15:H17"/>
+      <selection activeCell="G17" sqref="G17:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2822,6 +2840,13 @@
         <f>(B7-B5)/D11</f>
         <v>1.4823291173542203</v>
       </c>
+      <c r="C13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="1">
+        <f>D17-B9</f>
+        <v>12.327999999999975</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H15" t="s">
@@ -2873,13 +2898,13 @@
       <c r="F17" s="4">
         <v>0</v>
       </c>
-      <c r="G17" s="6">
-        <f>(D17-$B$7)/($B$7-$B$5)</f>
-        <v>0.2752838781676783</v>
-      </c>
-      <c r="H17" s="8">
-        <f>(D17-$B$7)/$D$11</f>
-        <v>0.40806130814614133</v>
+      <c r="G17" s="8">
+        <f>(D17-$D$13-$B$7)/($B$7-$B$5)</f>
+        <v>0.25732313887521024</v>
+      </c>
+      <c r="H17" s="7">
+        <f>G17*$B$13</f>
+        <v>0.38143758132370786</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2902,13 +2927,13 @@
         <f>$D$17-D18</f>
         <v>3.2100000000000364</v>
       </c>
-      <c r="G18" s="6">
-        <f t="shared" ref="G18:G45" si="0">(D18-$B$7)/($B$7-$B$5)</f>
-        <v>0.27060720935450316</v>
-      </c>
-      <c r="H18" s="8">
-        <f t="shared" ref="H18:H49" si="1">(D18-$B$7)/$D$11</f>
-        <v>0.40112894579214942</v>
+      <c r="G18" s="8">
+        <f t="shared" ref="G18:G49" si="0">(D18-$D$13-$B$7)/($B$7-$B$5)</f>
+        <v>0.25264647006203511</v>
+      </c>
+      <c r="H18" s="7">
+        <f t="shared" ref="H18:H49" si="1">G18*$B$13</f>
+        <v>0.37450521896971595</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2931,13 +2956,13 @@
         <f t="shared" ref="F19:F45" si="2">$D$17-D19</f>
         <v>11.557000000000016</v>
       </c>
-      <c r="G19" s="6">
-        <f t="shared" si="0"/>
-        <v>0.2584464135340756</v>
-      </c>
-      <c r="H19" s="8">
-        <f t="shared" si="1"/>
-        <v>0.38310264405733013</v>
+      <c r="G19" s="8">
+        <f t="shared" si="0"/>
+        <v>0.24048567424160755</v>
+      </c>
+      <c r="H19" s="7">
+        <f t="shared" si="1"/>
+        <v>0.35647891723489666</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2948,13 +2973,13 @@
         <f t="shared" si="2"/>
         <v>7.7149999999999181</v>
       </c>
-      <c r="G20" s="6">
-        <f t="shared" si="0"/>
-        <v>0.26404384704816258</v>
-      </c>
-      <c r="H20" s="8">
-        <f t="shared" si="1"/>
-        <v>0.39139988273771559</v>
+      <c r="G20" s="8">
+        <f t="shared" si="0"/>
+        <v>0.24608310775569453</v>
+      </c>
+      <c r="H20" s="7">
+        <f t="shared" si="1"/>
+        <v>0.36477615591528217</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2977,13 +3002,13 @@
         <f t="shared" si="2"/>
         <v>34.035000000000082</v>
       </c>
-      <c r="G21" s="6">
-        <f t="shared" si="0"/>
-        <v>0.22569807659247121</v>
-      </c>
-      <c r="H21" s="8">
-        <f t="shared" si="1"/>
-        <v>0.3345588306638631</v>
+      <c r="G21" s="8">
+        <f t="shared" si="0"/>
+        <v>0.20773733730000316</v>
+      </c>
+      <c r="H21" s="7">
+        <f t="shared" si="1"/>
+        <v>0.30793510384142964</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2994,13 +3019,13 @@
         <f t="shared" si="2"/>
         <v>20.873000000000047</v>
       </c>
-      <c r="G22" s="6">
-        <f t="shared" si="0"/>
-        <v>0.24487387563266147</v>
-      </c>
-      <c r="H22" s="8">
-        <f t="shared" si="1"/>
-        <v>0.36298367592967024</v>
+      <c r="G22" s="8">
+        <f t="shared" si="0"/>
+        <v>0.22691313634019342</v>
+      </c>
+      <c r="H22" s="7">
+        <f t="shared" si="1"/>
+        <v>0.33635994910723677</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3020,13 +3045,13 @@
         <f t="shared" si="2"/>
         <v>33.909000000000106</v>
       </c>
-      <c r="G23" s="6">
-        <f t="shared" si="0"/>
-        <v>0.2258816467701846</v>
-      </c>
-      <c r="H23" s="8">
-        <f t="shared" si="1"/>
-        <v>0.33483094208336556</v>
+      <c r="G23" s="8">
+        <f t="shared" si="0"/>
+        <v>0.20792090747771655</v>
+      </c>
+      <c r="H23" s="7">
+        <f t="shared" si="1"/>
+        <v>0.30820721526093209</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3046,13 +3071,13 @@
         <f t="shared" si="2"/>
         <v>50.395999999999958</v>
       </c>
-      <c r="G24" s="6">
-        <f t="shared" si="0"/>
-        <v>0.20186163470700169</v>
-      </c>
-      <c r="H24" s="8">
-        <f t="shared" si="1"/>
-        <v>0.29922537880290989</v>
+      <c r="G24" s="8">
+        <f t="shared" si="0"/>
+        <v>0.18390089541453364</v>
+      </c>
+      <c r="H24" s="7">
+        <f t="shared" si="1"/>
+        <v>0.27260165198047642</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3069,13 +3094,13 @@
         <f t="shared" si="2"/>
         <v>58.194999999999936</v>
       </c>
-      <c r="G25" s="6">
-        <f t="shared" si="0"/>
-        <v>0.19049922346901027</v>
-      </c>
-      <c r="H25" s="8">
-        <f t="shared" si="1"/>
-        <v>0.28238254578148242</v>
+      <c r="G25" s="8">
+        <f t="shared" si="0"/>
+        <v>0.17253848417654225</v>
+      </c>
+      <c r="H25" s="7">
+        <f t="shared" si="1"/>
+        <v>0.25575881895904901</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3086,13 +3111,13 @@
         <f t="shared" si="2"/>
         <v>39.534000000000106</v>
       </c>
-      <c r="G26" s="6">
-        <f t="shared" si="0"/>
-        <v>0.21768654955083572</v>
-      </c>
-      <c r="H26" s="8">
-        <f t="shared" si="1"/>
-        <v>0.32268311085557611</v>
+      <c r="G26" s="8">
+        <f t="shared" si="0"/>
+        <v>0.19972581025836766</v>
+      </c>
+      <c r="H26" s="7">
+        <f t="shared" si="1"/>
+        <v>0.29605938403314264</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3115,13 +3140,13 @@
         <f t="shared" si="2"/>
         <v>44.957000000000107</v>
       </c>
-      <c r="G27" s="6">
-        <f t="shared" si="0"/>
-        <v>0.20978574737829722</v>
-      </c>
-      <c r="H27" s="8">
-        <f t="shared" si="1"/>
-        <v>0.31097152174476678</v>
+      <c r="G27" s="8">
+        <f t="shared" si="0"/>
+        <v>0.19182500808582917</v>
+      </c>
+      <c r="H27" s="7">
+        <f t="shared" si="1"/>
+        <v>0.28434779492233331</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3138,13 +3163,13 @@
         <f t="shared" si="2"/>
         <v>51.121000000000095</v>
       </c>
-      <c r="G28" s="6">
-        <f t="shared" si="0"/>
-        <v>0.20080537773206319</v>
-      </c>
-      <c r="H28" s="8">
-        <f t="shared" si="1"/>
-        <v>0.29765965833355007</v>
+      <c r="G28" s="8">
+        <f t="shared" si="0"/>
+        <v>0.18284463843959514</v>
+      </c>
+      <c r="H28" s="7">
+        <f t="shared" si="1"/>
+        <v>0.2710359315111166</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3155,13 +3180,13 @@
         <f t="shared" si="2"/>
         <v>45.777000000000044</v>
       </c>
-      <c r="G29" s="6">
-        <f t="shared" si="0"/>
-        <v>0.20859108431698781</v>
-      </c>
-      <c r="H29" s="8">
-        <f t="shared" si="1"/>
-        <v>0.30920063790356028</v>
+      <c r="G29" s="8">
+        <f t="shared" si="0"/>
+        <v>0.19063034502451975</v>
+      </c>
+      <c r="H29" s="7">
+        <f t="shared" si="1"/>
+        <v>0.28257691108112687</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3184,13 +3209,13 @@
         <f t="shared" si="2"/>
         <v>100.64200000000005</v>
       </c>
-      <c r="G30" s="6">
-        <f t="shared" si="0"/>
-        <v>0.12865792717217422</v>
-      </c>
-      <c r="H30" s="8">
-        <f t="shared" si="1"/>
-        <v>0.1907133916257526</v>
+      <c r="G30" s="8">
+        <f t="shared" si="0"/>
+        <v>0.11069718787970617</v>
+      </c>
+      <c r="H30" s="7">
+        <f t="shared" si="1"/>
+        <v>0.16408966480331916</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3201,13 +3226,13 @@
         <f t="shared" si="2"/>
         <v>73.175000000000068</v>
       </c>
-      <c r="G31" s="6">
-        <f t="shared" si="0"/>
-        <v>0.16867476900752632</v>
-      </c>
-      <c r="H31" s="8">
-        <f t="shared" si="1"/>
-        <v>0.25003152146285351</v>
+      <c r="G31" s="8">
+        <f t="shared" si="0"/>
+        <v>0.15071402971505826</v>
+      </c>
+      <c r="H31" s="7">
+        <f t="shared" si="1"/>
+        <v>0.22340779464042004</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3227,13 +3252,13 @@
         <f t="shared" si="2"/>
         <v>93.361999999999966</v>
       </c>
-      <c r="G32" s="6">
-        <f t="shared" si="0"/>
-        <v>0.13926420410672721</v>
-      </c>
-      <c r="H32" s="8">
-        <f t="shared" si="1"/>
-        <v>0.20643538475256296</v>
+      <c r="G32" s="8">
+        <f t="shared" si="0"/>
+        <v>0.12130346481425916</v>
+      </c>
+      <c r="H32" s="7">
+        <f t="shared" si="1"/>
+        <v>0.17981165793012951</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3253,13 +3278,13 @@
         <f t="shared" si="2"/>
         <v>110.44299999999998</v>
       </c>
-      <c r="G33" s="6">
-        <f t="shared" si="0"/>
-        <v>0.11437878977718083</v>
-      </c>
-      <c r="H33" s="8">
-        <f t="shared" si="1"/>
-        <v>0.16954701049445239</v>
+      <c r="G33" s="8">
+        <f t="shared" si="0"/>
+        <v>9.6418050484712775E-2</v>
+      </c>
+      <c r="H33" s="7">
+        <f t="shared" si="1"/>
+        <v>0.14292328367201895</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3276,13 +3301,13 @@
         <f t="shared" si="2"/>
         <v>114.22000000000003</v>
       </c>
-      <c r="G34" s="6">
-        <f t="shared" si="0"/>
-        <v>0.10887605516429531</v>
-      </c>
-      <c r="H34" s="8">
-        <f t="shared" si="1"/>
-        <v>0.16139014675269928</v>
+      <c r="G34" s="8">
+        <f t="shared" si="0"/>
+        <v>9.091531587182726E-2</v>
+      </c>
+      <c r="H34" s="7">
+        <f t="shared" si="1"/>
+        <v>0.13476641993026583</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3293,13 +3318,13 @@
         <f t="shared" si="2"/>
         <v>94.108000000000061</v>
       </c>
-      <c r="G35" s="6">
-        <f t="shared" si="0"/>
-        <v>0.13817735210216986</v>
-      </c>
-      <c r="H35" s="8">
-        <f t="shared" si="1"/>
-        <v>0.2048243123799528</v>
+      <c r="G35" s="8">
+        <f t="shared" si="0"/>
+        <v>0.12021661280970182</v>
+      </c>
+      <c r="H35" s="7">
+        <f t="shared" si="1"/>
+        <v>0.17820058555751936</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3319,13 +3344,13 @@
         <f t="shared" si="2"/>
         <v>124.63499999999999</v>
       </c>
-      <c r="G36" s="6">
-        <f t="shared" si="0"/>
-        <v>9.3702377379492052E-2</v>
-      </c>
-      <c r="H36" s="8">
-        <f t="shared" si="1"/>
-        <v>0.13889776235493453</v>
+      <c r="G36" s="8">
+        <f t="shared" si="0"/>
+        <v>7.5741638087023999E-2</v>
+      </c>
+      <c r="H36" s="7">
+        <f t="shared" si="1"/>
+        <v>0.11227403553250108</v>
       </c>
     </row>
     <row r="37" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3348,13 +3373,13 @@
         <f t="shared" si="2"/>
         <v>149.50900000000001</v>
       </c>
-      <c r="G37" s="6">
-        <f t="shared" si="0"/>
-        <v>5.746329324898819E-2</v>
-      </c>
-      <c r="H37" s="8">
-        <f t="shared" si="1"/>
-        <v>8.5179512762039403E-2</v>
+      <c r="G37" s="8">
+        <f t="shared" si="0"/>
+        <v>3.9502553956520144E-2</v>
+      </c>
+      <c r="H37" s="7">
+        <f t="shared" si="1"/>
+        <v>5.8555785939605969E-2</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3365,13 +3390,13 @@
         <f t="shared" si="2"/>
         <v>121.70500000000004</v>
       </c>
-      <c r="G38" s="6">
-        <f t="shared" si="0"/>
-        <v>9.7971112464415047E-2</v>
-      </c>
-      <c r="H38" s="8">
-        <f t="shared" si="1"/>
-        <v>0.14522543266558741</v>
+      <c r="G38" s="8">
+        <f t="shared" si="0"/>
+        <v>8.0010373171946994E-2</v>
+      </c>
+      <c r="H38" s="7">
+        <f t="shared" si="1"/>
+        <v>0.11860170584315398</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3391,13 +3416,13 @@
         <f t="shared" si="2"/>
         <v>130.88999999999999</v>
       </c>
-      <c r="G39" s="6">
-        <f t="shared" si="0"/>
-        <v>8.4589429271576103E-2</v>
-      </c>
-      <c r="H39" s="8">
-        <f t="shared" si="1"/>
-        <v>0.12538937402963268</v>
+      <c r="G39" s="8">
+        <f t="shared" si="0"/>
+        <v>6.6628689979108063E-2</v>
+      </c>
+      <c r="H39" s="7">
+        <f t="shared" si="1"/>
+        <v>9.8765647207199242E-2</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3420,13 +3445,13 @@
         <f t="shared" si="2"/>
         <v>141.06899999999996</v>
       </c>
-      <c r="G40" s="6">
-        <f t="shared" si="0"/>
-        <v>6.9759581343442414E-2</v>
-      </c>
-      <c r="H40" s="8">
-        <f t="shared" si="1"/>
-        <v>0.10340665863982494</v>
+      <c r="G40" s="8">
+        <f t="shared" si="0"/>
+        <v>5.1798842050974361E-2</v>
+      </c>
+      <c r="H40" s="7">
+        <f t="shared" si="1"/>
+        <v>7.67829318173915E-2</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3449,13 +3474,13 @@
         <f t="shared" si="2"/>
         <v>147.928</v>
       </c>
-      <c r="G41" s="6">
-        <f t="shared" si="0"/>
-        <v>5.9766661907439879E-2</v>
-      </c>
-      <c r="H41" s="8">
-        <f t="shared" si="1"/>
-        <v>8.8593863192463457E-2</v>
+      <c r="G41" s="8">
+        <f t="shared" si="0"/>
+        <v>4.1805922614971826E-2</v>
+      </c>
+      <c r="H41" s="7">
+        <f t="shared" si="1"/>
+        <v>6.1970136370030023E-2</v>
       </c>
     </row>
     <row r="42" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3472,13 +3497,13 @@
         <f t="shared" si="2"/>
         <v>148.072</v>
       </c>
-      <c r="G42" s="6">
-        <f t="shared" si="0"/>
-        <v>5.9556867418624537E-2</v>
-      </c>
-      <c r="H42" s="8">
-        <f t="shared" si="1"/>
-        <v>8.8282878713032045E-2</v>
+      <c r="G42" s="8">
+        <f t="shared" si="0"/>
+        <v>4.1596128126156484E-2</v>
+      </c>
+      <c r="H42" s="7">
+        <f t="shared" si="1"/>
+        <v>6.1659151890598604E-2</v>
       </c>
     </row>
     <row r="43" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3492,13 +3517,13 @@
         <f t="shared" si="2"/>
         <v>35.303000000000111</v>
       </c>
-      <c r="G43" s="6">
-        <f t="shared" si="0"/>
-        <v>0.22385071956595839</v>
-      </c>
-      <c r="H43" s="8">
-        <f t="shared" si="1"/>
-        <v>0.33182043955331425</v>
+      <c r="G43" s="8">
+        <f t="shared" si="0"/>
+        <v>0.20588998027349034</v>
+      </c>
+      <c r="H43" s="7">
+        <f t="shared" si="1"/>
+        <v>0.30519671273088078</v>
       </c>
     </row>
     <row r="44" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3521,20 +3546,20 @@
         <f t="shared" si="2"/>
         <v>42.435999999999922</v>
       </c>
-      <c r="G44" s="6">
-        <f t="shared" si="0"/>
-        <v>0.21345860783873813</v>
-      </c>
-      <c r="H44" s="8">
-        <f t="shared" si="1"/>
-        <v>0.31641590974925737</v>
+      <c r="G44" s="8">
+        <f t="shared" si="0"/>
+        <v>0.19549786854627008</v>
+      </c>
+      <c r="H44" s="7">
+        <f t="shared" si="1"/>
+        <v>0.2897921829268239</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B45" s="7">
+      <c r="B45" s="6">
         <v>0.3923611111111111</v>
       </c>
       <c r="C45" s="1">
@@ -3550,13 +3575,13 @@
         <f t="shared" si="2"/>
         <v>53.894999999999982</v>
       </c>
-      <c r="G45" s="2">
-        <f t="shared" si="0"/>
-        <v>0.19676392001002357</v>
-      </c>
-      <c r="H45" s="8">
-        <f t="shared" si="1"/>
-        <v>0.29166888787561468</v>
+      <c r="G45" s="8">
+        <f t="shared" si="0"/>
+        <v>0.17880318071755552</v>
+      </c>
+      <c r="H45" s="7">
+        <f t="shared" si="1"/>
+        <v>0.26504516105318121</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3576,13 +3601,13 @@
         <f>$D$17-D46</f>
         <v>76.555000000000064</v>
       </c>
-      <c r="G46" s="6">
-        <f>(D46-$B$7)/($B$7-$B$5)</f>
-        <v>0.16375042614505536</v>
-      </c>
-      <c r="H46" s="8">
-        <f t="shared" si="1"/>
-        <v>0.24273202465397736</v>
+      <c r="G46" s="8">
+        <f t="shared" si="0"/>
+        <v>0.14578968685258731</v>
+      </c>
+      <c r="H46" s="7">
+        <f t="shared" si="1"/>
+        <v>0.21610829783154392</v>
       </c>
     </row>
     <row r="47" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3605,13 +3630,13 @@
         <f>$D$17-D47</f>
         <v>81.90300000000002</v>
       </c>
-      <c r="G47" s="6">
-        <f>(D47-$B$7)/($B$7-$B$5)</f>
-        <v>0.15595889193544157</v>
-      </c>
-      <c r="H47" s="8">
-        <f t="shared" si="1"/>
-        <v>0.23118240662620537</v>
+      <c r="G47" s="8">
+        <f t="shared" si="0"/>
+        <v>0.13799815264297352</v>
+      </c>
+      <c r="H47" s="7">
+        <f t="shared" si="1"/>
+        <v>0.2045586798037719</v>
       </c>
     </row>
     <row r="48" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3628,13 +3653,13 @@
         <f>$D$17-D48</f>
         <v>82.159999999999968</v>
       </c>
-      <c r="G48" s="6">
-        <f>(D48-$B$7)/($B$7-$B$5)</f>
-        <v>0.15558446704915319</v>
-      </c>
-      <c r="H48" s="8">
-        <f t="shared" si="1"/>
-        <v>0.23062738571499805</v>
+      <c r="G48" s="8">
+        <f t="shared" si="0"/>
+        <v>0.13762372775668513</v>
+      </c>
+      <c r="H48" s="7">
+        <f t="shared" si="1"/>
+        <v>0.20400365889256458</v>
       </c>
     </row>
     <row r="49" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3651,13 +3676,13 @@
         <f>$D$17-D49</f>
         <v>82.447000000000003</v>
       </c>
-      <c r="G49" s="6">
-        <f>(D49-$B$7)/($B$7-$B$5)</f>
-        <v>0.1551663349776948</v>
-      </c>
-      <c r="H49" s="8">
-        <f t="shared" si="1"/>
-        <v>0.23000757637057564</v>
+      <c r="G49" s="8">
+        <f t="shared" si="0"/>
+        <v>0.13720559568522675</v>
+      </c>
+      <c r="H49" s="7">
+        <f t="shared" si="1"/>
+        <v>0.2033838495481422</v>
       </c>
     </row>
     <row r="50" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -3768,8 +3793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H17" sqref="H15:H17"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3857,6 +3882,13 @@
         <f>(B7-B5)/D11</f>
         <v>1.4990170534891025</v>
       </c>
+      <c r="C13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="1">
+        <f>D17-B9</f>
+        <v>11.513999999999896</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H15" t="s">
@@ -3908,13 +3940,13 @@
       <c r="F17" s="4">
         <v>0</v>
       </c>
-      <c r="G17" s="6">
-        <f>(D17-$B$7)/($B$7-$B$5)</f>
-        <v>0.26960179316786648</v>
-      </c>
-      <c r="H17" s="8">
-        <f>(D17-$B$7)/$D$11</f>
-        <v>0.40413768560987362</v>
+      <c r="G17" s="8">
+        <f>(D17-$D$13-$B$7)/($B$7-$B$5)</f>
+        <v>0.25274472685959931</v>
+      </c>
+      <c r="H17" s="7">
+        <f>G17*$B$13</f>
+        <v>0.37886865574198458</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3937,13 +3969,13 @@
         <f>$D$17-D18</f>
         <v>-0.16699999999991633</v>
       </c>
-      <c r="G18" s="6">
-        <f t="shared" ref="G18:G46" si="0">(D18-$B$7)/($B$7-$B$5)</f>
-        <v>0.26984628943966421</v>
-      </c>
-      <c r="H18" s="8">
-        <f t="shared" ref="H18:H53" si="1">(D18-$B$7)/$D$11</f>
-        <v>0.40450418969081298</v>
+      <c r="G18" s="8">
+        <f t="shared" ref="G18:G53" si="0">(D18-$D$13-$B$7)/($B$7-$B$5)</f>
+        <v>0.25298922313139705</v>
+      </c>
+      <c r="H18" s="7">
+        <f t="shared" ref="H18:H53" si="1">G18*$B$13</f>
+        <v>0.37923515982292388</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3966,13 +3998,13 @@
         <f t="shared" ref="F19:F46" si="2">$D$17-D19</f>
         <v>8.6720000000000255</v>
       </c>
-      <c r="G19" s="6">
-        <f t="shared" si="0"/>
-        <v>0.256905555628758</v>
-      </c>
-      <c r="H19" s="8">
-        <f t="shared" si="1"/>
-        <v>0.38510580902360153</v>
+      <c r="G19" s="8">
+        <f t="shared" si="0"/>
+        <v>0.24004848932049083</v>
+      </c>
+      <c r="H19" s="7">
+        <f t="shared" si="1"/>
+        <v>0.35983677915571244</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3983,13 +4015,13 @@
         <f t="shared" si="2"/>
         <v>4.3029999999998836</v>
       </c>
-      <c r="G20" s="6">
-        <f t="shared" si="0"/>
-        <v>0.26330198803285931</v>
-      </c>
-      <c r="H20" s="8">
-        <f t="shared" si="1"/>
-        <v>0.39469417027883968</v>
+      <c r="G20" s="8">
+        <f t="shared" si="0"/>
+        <v>0.24644492172459212</v>
+      </c>
+      <c r="H20" s="7">
+        <f t="shared" si="1"/>
+        <v>0.36942514041095059</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -4012,13 +4044,13 @@
         <f t="shared" si="2"/>
         <v>18.91599999999994</v>
       </c>
-      <c r="G21" s="6">
-        <f t="shared" si="0"/>
-        <v>0.24190783222577997</v>
-      </c>
-      <c r="H21" s="8">
-        <f t="shared" si="1"/>
-        <v>0.36262396587902485</v>
+      <c r="G21" s="8">
+        <f t="shared" si="0"/>
+        <v>0.22505076591751277</v>
+      </c>
+      <c r="H21" s="7">
+        <f t="shared" si="1"/>
+        <v>0.33735493601113575</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -4029,13 +4061,13 @@
         <f t="shared" si="2"/>
         <v>12.225999999999885</v>
       </c>
-      <c r="G22" s="6">
-        <f t="shared" si="0"/>
-        <v>0.25170232359301198</v>
-      </c>
-      <c r="H22" s="8">
-        <f t="shared" si="1"/>
-        <v>0.37730607546875744</v>
+      <c r="G22" s="8">
+        <f t="shared" si="0"/>
+        <v>0.23484525728474481</v>
+      </c>
+      <c r="H22" s="7">
+        <f t="shared" si="1"/>
+        <v>0.35203704560086835</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -4055,13 +4087,13 @@
         <f t="shared" si="2"/>
         <v>17.142000000000053</v>
       </c>
-      <c r="G23" s="6">
-        <f t="shared" si="0"/>
-        <v>0.24450505609505777</v>
-      </c>
-      <c r="H23" s="8">
-        <f t="shared" si="1"/>
-        <v>0.36651724875080122</v>
+      <c r="G23" s="8">
+        <f t="shared" si="0"/>
+        <v>0.22764798978679057</v>
+      </c>
+      <c r="H23" s="7">
+        <f t="shared" si="1"/>
+        <v>0.34124821888291212</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -4081,13 +4113,13 @@
         <f t="shared" si="2"/>
         <v>22.170000000000073</v>
       </c>
-      <c r="G24" s="6">
-        <f t="shared" si="0"/>
-        <v>0.23714381504955068</v>
-      </c>
-      <c r="H24" s="8">
-        <f t="shared" si="1"/>
-        <v>0.35548262288874211</v>
+      <c r="G24" s="8">
+        <f t="shared" si="0"/>
+        <v>0.22028674874128348</v>
+      </c>
+      <c r="H24" s="7">
+        <f t="shared" si="1"/>
+        <v>0.33021359302085301</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -4102,13 +4134,13 @@
         <f t="shared" si="2"/>
         <v>24.477000000000089</v>
       </c>
-      <c r="G25" s="6">
-        <f t="shared" si="0"/>
-        <v>0.23376625277986393</v>
-      </c>
-      <c r="H25" s="8">
-        <f t="shared" si="1"/>
-        <v>0.35041959944726037</v>
+      <c r="G25" s="8">
+        <f t="shared" si="0"/>
+        <v>0.21690918647159677</v>
+      </c>
+      <c r="H25" s="7">
+        <f t="shared" si="1"/>
+        <v>0.32515056957937127</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -4125,13 +4157,13 @@
         <f t="shared" si="2"/>
         <v>26.325000000000045</v>
       </c>
-      <c r="G26" s="6">
-        <f t="shared" si="0"/>
-        <v>0.23106068924523851</v>
-      </c>
-      <c r="H26" s="8">
-        <f t="shared" si="1"/>
-        <v>0.34636391356955859</v>
+      <c r="G26" s="8">
+        <f t="shared" si="0"/>
+        <v>0.21420362293697132</v>
+      </c>
+      <c r="H26" s="7">
+        <f t="shared" si="1"/>
+        <v>0.3210948837016695</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -4142,13 +4174,13 @@
         <f t="shared" si="2"/>
         <v>19.133000000000038</v>
       </c>
-      <c r="G27" s="6">
-        <f t="shared" si="0"/>
-        <v>0.24159013347739577</v>
-      </c>
-      <c r="H27" s="8">
-        <f t="shared" si="1"/>
-        <v>0.36214773003732481</v>
+      <c r="G27" s="8">
+        <f t="shared" si="0"/>
+        <v>0.22473306716912858</v>
+      </c>
+      <c r="H27" s="7">
+        <f t="shared" si="1"/>
+        <v>0.33687870016943566</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -4168,13 +4200,13 @@
         <f t="shared" si="2"/>
         <v>21.710000000000036</v>
       </c>
-      <c r="G28" s="6">
-        <f t="shared" si="0"/>
-        <v>0.23781727783414366</v>
-      </c>
-      <c r="H28" s="8">
-        <f t="shared" si="1"/>
-        <v>0.35649215508773724</v>
+      <c r="G28" s="8">
+        <f t="shared" si="0"/>
+        <v>0.22096021152587647</v>
+      </c>
+      <c r="H28" s="7">
+        <f t="shared" si="1"/>
+        <v>0.3312231252198482</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -4191,13 +4223,13 @@
         <f t="shared" si="2"/>
         <v>24.025000000000091</v>
       </c>
-      <c r="G29" s="6">
-        <f t="shared" si="0"/>
-        <v>0.23442800316820309</v>
-      </c>
-      <c r="H29" s="8">
-        <f t="shared" si="1"/>
-        <v>0.35141157456453376</v>
+      <c r="G29" s="8">
+        <f t="shared" si="0"/>
+        <v>0.21757093685993589</v>
+      </c>
+      <c r="H29" s="7">
+        <f t="shared" si="1"/>
+        <v>0.32614254469664467</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -4208,13 +4240,13 @@
         <f t="shared" si="2"/>
         <v>21.528999999999996</v>
       </c>
-      <c r="G30" s="6">
-        <f t="shared" si="0"/>
-        <v>0.23808227079938571</v>
-      </c>
-      <c r="H30" s="8">
-        <f t="shared" si="1"/>
-        <v>0.35688938406168974</v>
+      <c r="G30" s="8">
+        <f t="shared" si="0"/>
+        <v>0.22122520449111852</v>
+      </c>
+      <c r="H30" s="7">
+        <f t="shared" si="1"/>
+        <v>0.33162035419380065</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -4237,13 +4269,13 @@
         <f t="shared" si="2"/>
         <v>37.869999999999891</v>
       </c>
-      <c r="G31" s="6">
-        <f t="shared" si="0"/>
-        <v>0.21415823740148796</v>
-      </c>
-      <c r="H31" s="8">
-        <f t="shared" si="1"/>
-        <v>0.32102685000999814</v>
+      <c r="G31" s="8">
+        <f t="shared" si="0"/>
+        <v>0.19730117109322076</v>
+      </c>
+      <c r="H31" s="7">
+        <f t="shared" si="1"/>
+        <v>0.29575782014210905</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -4254,13 +4286,13 @@
         <f t="shared" si="2"/>
         <v>30.09699999999998</v>
       </c>
-      <c r="G32" s="6">
-        <f t="shared" si="0"/>
-        <v>0.22553829441157658</v>
-      </c>
-      <c r="H32" s="8">
-        <f t="shared" si="1"/>
-        <v>0.33808574953779924</v>
+      <c r="G32" s="8">
+        <f t="shared" si="0"/>
+        <v>0.20868122810330939</v>
+      </c>
+      <c r="H32" s="7">
+        <f t="shared" si="1"/>
+        <v>0.31281671966991015</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -4283,13 +4315,13 @@
         <f t="shared" si="2"/>
         <v>34.541999999999916</v>
       </c>
-      <c r="G33" s="6">
-        <f t="shared" si="0"/>
-        <v>0.21903059424306459</v>
-      </c>
-      <c r="H33" s="8">
-        <f t="shared" si="1"/>
-        <v>0.32833059600620584</v>
+      <c r="G33" s="8">
+        <f t="shared" si="0"/>
+        <v>0.2021735279347974</v>
+      </c>
+      <c r="H33" s="7">
+        <f t="shared" si="1"/>
+        <v>0.30306156613831675</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -4309,13 +4341,13 @@
         <f t="shared" si="2"/>
         <v>39.046000000000049</v>
       </c>
-      <c r="G34" s="6">
-        <f t="shared" si="0"/>
-        <v>0.21243651515218059</v>
-      </c>
-      <c r="H34" s="8">
-        <f t="shared" si="1"/>
-        <v>0.3184459589969148</v>
+      <c r="G34" s="8">
+        <f t="shared" si="0"/>
+        <v>0.1955794488439134</v>
+      </c>
+      <c r="H34" s="7">
+        <f t="shared" si="1"/>
+        <v>0.29317692912902571</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -4332,13 +4364,13 @@
         <f t="shared" si="2"/>
         <v>40.057000000000016</v>
       </c>
-      <c r="G35" s="6">
-        <f t="shared" si="0"/>
-        <v>0.21095636107560792</v>
-      </c>
-      <c r="H35" s="8">
-        <f t="shared" si="1"/>
-        <v>0.31622718279434098</v>
+      <c r="G35" s="8">
+        <f>(D35-$D$13-$B$7)/($B$7-$B$5)</f>
+        <v>0.19409929476734072</v>
+      </c>
+      <c r="H35" s="7">
+        <f t="shared" si="1"/>
+        <v>0.29095815292645189</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -4349,13 +4381,13 @@
         <f t="shared" si="2"/>
         <v>35.076999999999998</v>
       </c>
-      <c r="G36" s="6">
-        <f t="shared" si="0"/>
-        <v>0.21824732774359226</v>
-      </c>
-      <c r="H36" s="8">
-        <f t="shared" si="1"/>
-        <v>0.32715646616607008</v>
+      <c r="G36" s="8">
+        <f t="shared" si="0"/>
+        <v>0.20139026143532507</v>
+      </c>
+      <c r="H36" s="7">
+        <f t="shared" si="1"/>
+        <v>0.30188743629818104</v>
       </c>
     </row>
     <row r="37" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -4375,13 +4407,13 @@
         <f t="shared" si="2"/>
         <v>42.830999999999904</v>
       </c>
-      <c r="G37" s="6">
-        <f t="shared" si="0"/>
-        <v>0.20689508767460638</v>
-      </c>
-      <c r="H37" s="8">
-        <f t="shared" si="1"/>
-        <v>0.31013926470735798</v>
+      <c r="G37" s="8">
+        <f t="shared" si="0"/>
+        <v>0.19003802136633918</v>
+      </c>
+      <c r="H37" s="7">
+        <f t="shared" si="1"/>
+        <v>0.28487023483946888</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -4404,13 +4436,13 @@
         <f t="shared" si="2"/>
         <v>49.15300000000002</v>
       </c>
-      <c r="G38" s="6">
-        <f t="shared" si="0"/>
-        <v>0.1976393665350486</v>
-      </c>
-      <c r="H38" s="8">
-        <f t="shared" si="1"/>
-        <v>0.29626478087682129</v>
+      <c r="G38" s="8">
+        <f t="shared" si="0"/>
+        <v>0.18078230022678143</v>
+      </c>
+      <c r="H38" s="7">
+        <f t="shared" si="1"/>
+        <v>0.2709957510089322</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -4421,13 +4453,13 @@
         <f t="shared" si="2"/>
         <v>42.145999999999958</v>
       </c>
-      <c r="G39" s="6">
-        <f t="shared" si="0"/>
-        <v>0.20789796160383706</v>
-      </c>
-      <c r="H39" s="8">
-        <f t="shared" si="1"/>
-        <v>0.31164258982977439</v>
+      <c r="G39" s="8">
+        <f t="shared" si="0"/>
+        <v>0.19104089529556989</v>
+      </c>
+      <c r="H39" s="7">
+        <f t="shared" si="1"/>
+        <v>0.28637355996188535</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -4447,13 +4479,13 @@
         <f t="shared" si="2"/>
         <v>44.673000000000002</v>
       </c>
-      <c r="G40" s="6">
-        <f t="shared" si="0"/>
-        <v>0.20419830843717107</v>
-      </c>
-      <c r="H40" s="8">
-        <f t="shared" si="1"/>
-        <v>0.3060967466409471</v>
+      <c r="G40" s="8">
+        <f t="shared" si="0"/>
+        <v>0.18734124212890388</v>
+      </c>
+      <c r="H40" s="7">
+        <f t="shared" si="1"/>
+        <v>0.28082771677305801</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -4473,13 +4505,13 @@
         <f t="shared" si="2"/>
         <v>48.432000000000016</v>
       </c>
-      <c r="G41" s="6">
-        <f t="shared" si="0"/>
-        <v>0.19869494624742146</v>
-      </c>
-      <c r="H41" s="8">
-        <f t="shared" si="1"/>
-        <v>0.29784711286698529</v>
+      <c r="G41" s="8">
+        <f t="shared" si="0"/>
+        <v>0.18183787993915426</v>
+      </c>
+      <c r="H41" s="7">
+        <f t="shared" si="1"/>
+        <v>0.27257808299909619</v>
       </c>
     </row>
     <row r="42" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -4502,13 +4534,13 @@
         <f t="shared" si="2"/>
         <v>53.086999999999989</v>
       </c>
-      <c r="G42" s="6">
-        <f t="shared" si="0"/>
-        <v>0.19187979567724739</v>
-      </c>
-      <c r="H42" s="8">
-        <f t="shared" si="1"/>
-        <v>0.28763108594019843</v>
+      <c r="G42" s="8">
+        <f t="shared" si="0"/>
+        <v>0.1750227293689802</v>
+      </c>
+      <c r="H42" s="7">
+        <f t="shared" si="1"/>
+        <v>0.26236205607230928</v>
       </c>
     </row>
     <row r="43" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -4519,13 +4551,13 @@
         <f t="shared" si="2"/>
         <v>49.352000000000089</v>
       </c>
-      <c r="G43" s="6">
-        <f t="shared" si="0"/>
-        <v>0.19734802067823548</v>
-      </c>
-      <c r="H43" s="8">
-        <f t="shared" si="1"/>
-        <v>0.29582804846899502</v>
+      <c r="G43" s="8">
+        <f t="shared" si="0"/>
+        <v>0.18049095436996829</v>
+      </c>
+      <c r="H43" s="7">
+        <f t="shared" si="1"/>
+        <v>0.27055901860110593</v>
       </c>
     </row>
     <row r="44" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -4548,20 +4580,20 @@
         <f t="shared" si="2"/>
         <v>52.115000000000009</v>
       </c>
-      <c r="G44" s="6">
-        <f t="shared" si="0"/>
-        <v>0.19330285182208284</v>
-      </c>
-      <c r="H44" s="8">
-        <f t="shared" si="1"/>
-        <v>0.28976427136937921</v>
+      <c r="G44" s="8">
+        <f t="shared" si="0"/>
+        <v>0.17644578551381568</v>
+      </c>
+      <c r="H44" s="7">
+        <f t="shared" si="1"/>
+        <v>0.26449524150149017</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B45" s="7">
+      <c r="B45" s="6">
         <v>0.3923611111111111</v>
       </c>
       <c r="C45" s="1">
@@ -4577,17 +4609,17 @@
         <f t="shared" si="2"/>
         <v>57.451000000000022</v>
       </c>
-      <c r="G45" s="2">
-        <f t="shared" si="0"/>
-        <v>0.18549068352080486</v>
-      </c>
-      <c r="H45" s="8">
-        <f t="shared" si="1"/>
-        <v>0.27805369786103651</v>
+      <c r="G45" s="8">
+        <f t="shared" si="0"/>
+        <v>0.1686336172125377</v>
+      </c>
+      <c r="H45" s="7">
+        <f t="shared" si="1"/>
+        <v>0.25278466799314747</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="7">
+      <c r="B46" s="6">
         <v>0.5</v>
       </c>
       <c r="D46" s="1">
@@ -4597,13 +4629,13 @@
         <f t="shared" si="2"/>
         <v>52.88799999999992</v>
       </c>
-      <c r="G46" s="2">
-        <f t="shared" si="0"/>
-        <v>0.19217114153406054</v>
-      </c>
-      <c r="H46" s="8">
-        <f t="shared" si="1"/>
-        <v>0.2880678183480247</v>
+      <c r="G46" s="8">
+        <f t="shared" si="0"/>
+        <v>0.17531407522579334</v>
+      </c>
+      <c r="H46" s="7">
+        <f t="shared" si="1"/>
+        <v>0.2627987884801356</v>
       </c>
     </row>
     <row r="47" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -4623,13 +4655,13 @@
         <f t="shared" ref="F47:F53" si="3">$D$17-D47</f>
         <v>65.06899999999996</v>
       </c>
-      <c r="G47" s="6">
-        <f t="shared" ref="G47:G53" si="4">(D47-$B$7)/($B$7-$B$5)</f>
-        <v>0.17433755418813338</v>
-      </c>
-      <c r="H47" s="8">
-        <f t="shared" si="1"/>
-        <v>0.26133496679159246</v>
+      <c r="G47" s="8">
+        <f t="shared" si="0"/>
+        <v>0.15748048787986618</v>
+      </c>
+      <c r="H47" s="7">
+        <f t="shared" si="1"/>
+        <v>0.23606593692370334</v>
       </c>
     </row>
     <row r="48" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -4649,13 +4681,13 @@
         <f t="shared" si="3"/>
         <v>69.524999999999977</v>
       </c>
-      <c r="G48" s="6">
-        <f t="shared" si="4"/>
-        <v>0.16781374947477229</v>
-      </c>
-      <c r="H48" s="8">
-        <f t="shared" si="1"/>
-        <v>0.25155567227263159</v>
+      <c r="G48" s="8">
+        <f t="shared" si="0"/>
+        <v>0.1509566831665051</v>
+      </c>
+      <c r="H48" s="7">
+        <f t="shared" si="1"/>
+        <v>0.22628664240474247</v>
       </c>
     </row>
     <row r="49" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -4675,13 +4707,13 @@
         <f t="shared" si="3"/>
         <v>72.953999999999951</v>
       </c>
-      <c r="G49" s="6">
-        <f t="shared" si="4"/>
-        <v>0.16279352363049157</v>
-      </c>
-      <c r="H49" s="8">
-        <f t="shared" si="1"/>
-        <v>0.24403026811968803</v>
+      <c r="G49" s="8">
+        <f t="shared" si="0"/>
+        <v>0.14593645732222438</v>
+      </c>
+      <c r="H49" s="7">
+        <f t="shared" si="1"/>
+        <v>0.21876123825179894</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -4701,13 +4733,13 @@
         <f t="shared" si="3"/>
         <v>75.581999999999994</v>
       </c>
-      <c r="G50" s="6">
-        <f t="shared" si="4"/>
-        <v>0.15894600146112148</v>
-      </c>
-      <c r="H50" s="8">
-        <f t="shared" si="1"/>
-        <v>0.23826276677412489</v>
+      <c r="G50" s="8">
+        <f t="shared" si="0"/>
+        <v>0.14208893515285428</v>
+      </c>
+      <c r="H50" s="7">
+        <f t="shared" si="1"/>
+        <v>0.2129937369062358</v>
       </c>
     </row>
     <row r="51" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -4727,13 +4759,13 @@
         <f t="shared" si="3"/>
         <v>78.865000000000009</v>
       </c>
-      <c r="G51" s="6">
-        <f t="shared" si="4"/>
-        <v>0.15413952684847235</v>
-      </c>
-      <c r="H51" s="8">
-        <f t="shared" si="1"/>
-        <v>0.23105777936260144</v>
+      <c r="G51" s="8">
+        <f t="shared" si="0"/>
+        <v>0.13728246054020515</v>
+      </c>
+      <c r="H51" s="7">
+        <f t="shared" si="1"/>
+        <v>0.20578874949471232</v>
       </c>
     </row>
     <row r="52" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -4753,13 +4785,13 @@
         <f t="shared" si="3"/>
         <v>91.909999999999968</v>
       </c>
-      <c r="G52" s="6">
-        <f t="shared" si="4"/>
-        <v>0.13504100070713601</v>
-      </c>
-      <c r="H52" s="8">
-        <f t="shared" si="1"/>
-        <v>0.2024287629802308</v>
+      <c r="G52" s="8">
+        <f t="shared" si="0"/>
+        <v>0.11818393439886882</v>
+      </c>
+      <c r="H52" s="7">
+        <f t="shared" si="1"/>
+        <v>0.17715973311234173</v>
       </c>
     </row>
     <row r="53" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -4779,13 +4811,13 @@
         <f t="shared" si="3"/>
         <v>97.98599999999999</v>
       </c>
-      <c r="G53" s="6">
-        <f t="shared" si="4"/>
-        <v>0.12614543575238241</v>
-      </c>
-      <c r="H53" s="8">
-        <f t="shared" si="1"/>
-        <v>0.18909415941263519</v>
+      <c r="G53" s="8">
+        <f t="shared" si="0"/>
+        <v>0.10928836944411523</v>
+      </c>
+      <c r="H53" s="7">
+        <f t="shared" si="1"/>
+        <v>0.16382512954474607</v>
       </c>
     </row>
     <row r="54" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -4802,7 +4834,7 @@
   <dimension ref="A1:H69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H15:H17"/>
+      <selection activeCell="G17" sqref="G17:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4890,6 +4922,13 @@
         <f>(B7-B5)/D11</f>
         <v>1.4151556526456261</v>
       </c>
+      <c r="C13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="1">
+        <f>D17-B9</f>
+        <v>9.5149999999998727</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H15" t="s">
@@ -4941,13 +4980,13 @@
       <c r="F17" s="4">
         <v>0</v>
       </c>
-      <c r="G17" s="6">
-        <f>(D17-$B$7)/($B$7-$B$5)</f>
-        <v>0.25551273601364688</v>
-      </c>
-      <c r="H17" s="8">
-        <f>(D17-$B$7)/$D$11</f>
-        <v>0.36159029269266202</v>
+      <c r="G17" s="8">
+        <f>(D17-$D$13-$B$7)/($B$7-$B$5)</f>
+        <v>0.24075679447912218</v>
+      </c>
+      <c r="H17" s="7">
+        <f>G17*$B$13</f>
+        <v>0.34070833861997102</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -4970,13 +5009,13 @@
         <f>$D$17-D18</f>
         <v>1.2279999999998381</v>
       </c>
-      <c r="G18" s="6">
-        <f t="shared" ref="G18:G48" si="0">(D18-$B$7)/($B$7-$B$5)</f>
-        <v>0.25360834334897064</v>
-      </c>
-      <c r="H18" s="8">
-        <f t="shared" ref="H18:H52" si="1">(D18-$B$7)/$D$11</f>
-        <v>0.3588952806483886</v>
+      <c r="G18" s="8">
+        <f t="shared" ref="G18:G52" si="0">(D18-$D$13-$B$7)/($B$7-$B$5)</f>
+        <v>0.23885240181444597</v>
+      </c>
+      <c r="H18" s="7">
+        <f t="shared" ref="H18:H52" si="1">G18*$B$13</f>
+        <v>0.33801332657569766</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -4999,13 +5038,13 @@
         <f t="shared" ref="F19:F48" si="2">$D$17-D19</f>
         <v>8.043999999999869</v>
       </c>
-      <c r="G19" s="6">
-        <f t="shared" si="0"/>
-        <v>0.24303803357500092</v>
-      </c>
-      <c r="H19" s="8">
-        <f t="shared" si="1"/>
-        <v>0.34393664702154003</v>
+      <c r="G19" s="8">
+        <f t="shared" si="0"/>
+        <v>0.22828209204047625</v>
+      </c>
+      <c r="H19" s="7">
+        <f t="shared" si="1"/>
+        <v>0.32305469294884909</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -5016,13 +5055,13 @@
         <f t="shared" si="2"/>
         <v>1.5789999999999509</v>
       </c>
-      <c r="G20" s="6">
-        <f t="shared" si="0"/>
-        <v>0.25306400961501163</v>
-      </c>
-      <c r="H20" s="8">
-        <f t="shared" si="1"/>
-        <v>0.35812496368785079</v>
+      <c r="G20" s="8">
+        <f t="shared" si="0"/>
+        <v>0.23830806808048699</v>
+      </c>
+      <c r="H20" s="7">
+        <f t="shared" si="1"/>
+        <v>0.33724300961515985</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -5039,13 +5078,13 @@
         <f t="shared" si="2"/>
         <v>1.668999999999869</v>
       </c>
-      <c r="G21" s="6">
-        <f t="shared" si="0"/>
-        <v>0.25292443686271465</v>
-      </c>
-      <c r="H21" s="8">
-        <f t="shared" si="1"/>
-        <v>0.35792744651848241</v>
+      <c r="G21" s="8">
+        <f t="shared" si="0"/>
+        <v>0.23816849532818998</v>
+      </c>
+      <c r="H21" s="7">
+        <f t="shared" si="1"/>
+        <v>0.33704549244579146</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -5068,13 +5107,13 @@
         <f t="shared" si="2"/>
         <v>16.979999999999905</v>
       </c>
-      <c r="G22" s="6">
-        <f t="shared" si="0"/>
-        <v>0.22918001008025424</v>
-      </c>
-      <c r="H22" s="8">
-        <f t="shared" si="1"/>
-        <v>0.32432538673845335</v>
+      <c r="G22" s="8">
+        <f t="shared" si="0"/>
+        <v>0.21442406854572957</v>
+      </c>
+      <c r="H22" s="7">
+        <f t="shared" si="1"/>
+        <v>0.3034434326657624</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -5085,13 +5124,13 @@
         <f t="shared" si="2"/>
         <v>1.8139999999998508</v>
       </c>
-      <c r="G23" s="6">
-        <f t="shared" si="0"/>
-        <v>0.25269956965068041</v>
-      </c>
-      <c r="H23" s="8">
-        <f t="shared" si="1"/>
-        <v>0.35760922441227749</v>
+      <c r="G23" s="8">
+        <f t="shared" si="0"/>
+        <v>0.23794362811615574</v>
+      </c>
+      <c r="H23" s="7">
+        <f t="shared" si="1"/>
+        <v>0.33672727033958655</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -5111,13 +5150,13 @@
         <f t="shared" si="2"/>
         <v>10.342999999999961</v>
       </c>
-      <c r="G24" s="6">
-        <f t="shared" si="0"/>
-        <v>0.23947272515798843</v>
-      </c>
-      <c r="H24" s="8">
-        <f t="shared" si="1"/>
-        <v>0.33889118066177976</v>
+      <c r="G24" s="8">
+        <f t="shared" si="0"/>
+        <v>0.22471678362346376</v>
+      </c>
+      <c r="H24" s="7">
+        <f t="shared" si="1"/>
+        <v>0.31800922658908881</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -5137,13 +5176,13 @@
         <f t="shared" si="2"/>
         <v>21.136999999999944</v>
       </c>
-      <c r="G25" s="6">
-        <f t="shared" si="0"/>
-        <v>0.2227332997324854</v>
-      </c>
-      <c r="H25" s="8">
-        <f t="shared" si="1"/>
-        <v>0.31520228814883922</v>
+      <c r="G25" s="8">
+        <f t="shared" si="0"/>
+        <v>0.20797735819796073</v>
+      </c>
+      <c r="H25" s="7">
+        <f t="shared" si="1"/>
+        <v>0.29432033407614827</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -5160,13 +5199,13 @@
         <f t="shared" si="2"/>
         <v>26.032999999999902</v>
       </c>
-      <c r="G26" s="6">
-        <f t="shared" si="0"/>
-        <v>0.21514054200752133</v>
-      </c>
-      <c r="H26" s="8">
-        <f t="shared" si="1"/>
-        <v>0.3044573541351876</v>
+      <c r="G26" s="8">
+        <f t="shared" si="0"/>
+        <v>0.20038460047299667</v>
+      </c>
+      <c r="H26" s="7">
+        <f t="shared" si="1"/>
+        <v>0.28357540006249665</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -5177,13 +5216,13 @@
         <f t="shared" si="2"/>
         <v>1.8399999999999181</v>
       </c>
-      <c r="G27" s="6">
-        <f t="shared" si="0"/>
-        <v>0.25265924863335004</v>
-      </c>
-      <c r="H27" s="8">
-        <f t="shared" si="1"/>
-        <v>0.35755216389668198</v>
+      <c r="G27" s="8">
+        <f t="shared" si="0"/>
+        <v>0.23790330709882535</v>
+      </c>
+      <c r="H27" s="7">
+        <f t="shared" si="1"/>
+        <v>0.33667020982399098</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -5203,13 +5242,13 @@
         <f t="shared" si="2"/>
         <v>6.0459999999999354</v>
       </c>
-      <c r="G28" s="6">
-        <f t="shared" si="0"/>
-        <v>0.24613654867599721</v>
-      </c>
-      <c r="H28" s="8">
-        <f t="shared" si="1"/>
-        <v>0.34832152818152279</v>
+      <c r="G28" s="8">
+        <f t="shared" si="0"/>
+        <v>0.23138060714147254</v>
+      </c>
+      <c r="H28" s="7">
+        <f t="shared" si="1"/>
+        <v>0.32743957410883179</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -5226,13 +5265,13 @@
         <f t="shared" si="2"/>
         <v>11.247999999999934</v>
       </c>
-      <c r="G29" s="6">
-        <f t="shared" si="0"/>
-        <v>0.23806924359322282</v>
-      </c>
-      <c r="H29" s="8">
-        <f t="shared" si="1"/>
-        <v>0.3369050357920178</v>
+      <c r="G29" s="8">
+        <f t="shared" si="0"/>
+        <v>0.22331330205869815</v>
+      </c>
+      <c r="H29" s="7">
+        <f t="shared" si="1"/>
+        <v>0.3160230817193268</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -5243,13 +5282,13 @@
         <f t="shared" si="2"/>
         <v>1.6949999999999363</v>
       </c>
-      <c r="G30" s="6">
-        <f t="shared" si="0"/>
-        <v>0.25288411584538428</v>
-      </c>
-      <c r="H30" s="8">
-        <f t="shared" si="1"/>
-        <v>0.3578703860028869</v>
+      <c r="G30" s="8">
+        <f t="shared" si="0"/>
+        <v>0.23812817431085959</v>
+      </c>
+      <c r="H30" s="7">
+        <f t="shared" si="1"/>
+        <v>0.3369884319301959</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -5272,13 +5311,13 @@
         <f t="shared" si="2"/>
         <v>46.801999999999907</v>
       </c>
-      <c r="G31" s="6">
-        <f t="shared" si="0"/>
-        <v>0.18293180320241917</v>
-      </c>
-      <c r="H31" s="8">
-        <f t="shared" si="1"/>
-        <v>0.25887697535056076</v>
+      <c r="G31" s="8">
+        <f t="shared" si="0"/>
+        <v>0.1681758616678945</v>
+      </c>
+      <c r="H31" s="7">
+        <f t="shared" si="1"/>
+        <v>0.23799502127786978</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -5289,13 +5328,13 @@
         <f t="shared" si="2"/>
         <v>2.7019999999999982</v>
       </c>
-      <c r="G32" s="6">
-        <f t="shared" si="0"/>
-        <v>0.2513224518280151</v>
-      </c>
-      <c r="H32" s="8">
-        <f t="shared" si="1"/>
-        <v>0.35566038834117364</v>
+      <c r="G32" s="8">
+        <f t="shared" si="0"/>
+        <v>0.23656651029349043</v>
+      </c>
+      <c r="H32" s="7">
+        <f t="shared" si="1"/>
+        <v>0.33477843426848269</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -5315,13 +5354,13 @@
         <f t="shared" si="2"/>
         <v>20.051999999999907</v>
       </c>
-      <c r="G33" s="6">
-        <f t="shared" si="0"/>
-        <v>0.22441592680184536</v>
-      </c>
-      <c r="H33" s="8">
-        <f t="shared" si="1"/>
-        <v>0.31758346735733856</v>
+      <c r="G33" s="8">
+        <f t="shared" si="0"/>
+        <v>0.20965998526732069</v>
+      </c>
+      <c r="H33" s="7">
+        <f t="shared" si="1"/>
+        <v>0.29670151328464756</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -5341,13 +5380,13 @@
         <f t="shared" si="2"/>
         <v>39.188999999999851</v>
       </c>
-      <c r="G34" s="6">
-        <f t="shared" si="0"/>
-        <v>0.19473810723839802</v>
-      </c>
-      <c r="H34" s="8">
-        <f t="shared" si="1"/>
-        <v>0.27558473324392907</v>
+      <c r="G34" s="8">
+        <f t="shared" si="0"/>
+        <v>0.17998216570387332</v>
+      </c>
+      <c r="H34" s="7">
+        <f t="shared" si="1"/>
+        <v>0.25470277917123807</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -5364,13 +5403,13 @@
         <f t="shared" si="2"/>
         <v>42.342999999999961</v>
       </c>
-      <c r="G35" s="6">
-        <f t="shared" si="0"/>
-        <v>0.18984685767456269</v>
-      </c>
-      <c r="H35" s="8">
-        <f t="shared" si="1"/>
-        <v>0.26866285377516708</v>
+      <c r="G35" s="8">
+        <f t="shared" si="0"/>
+        <v>0.17509091614003802</v>
+      </c>
+      <c r="H35" s="7">
+        <f t="shared" si="1"/>
+        <v>0.2477808997024761</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -5381,13 +5420,13 @@
         <f t="shared" si="2"/>
         <v>4.7429999999999382</v>
       </c>
-      <c r="G36" s="6">
-        <f t="shared" si="0"/>
-        <v>0.24815725196758795</v>
-      </c>
-      <c r="H36" s="8">
-        <f t="shared" si="1"/>
-        <v>0.351181137866937</v>
+      <c r="G36" s="8">
+        <f t="shared" si="0"/>
+        <v>0.23340131043306328</v>
+      </c>
+      <c r="H36" s="7">
+        <f t="shared" si="1"/>
+        <v>0.33029918379424605</v>
       </c>
     </row>
     <row r="37" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -5407,13 +5446,13 @@
         <f t="shared" si="2"/>
         <v>45.072999999999865</v>
       </c>
-      <c r="G37" s="6">
-        <f t="shared" si="0"/>
-        <v>0.18561315085488309</v>
-      </c>
-      <c r="H37" s="8">
-        <f t="shared" si="1"/>
-        <v>0.26267149963765313</v>
+      <c r="G37" s="8">
+        <f t="shared" si="0"/>
+        <v>0.17085720932035842</v>
+      </c>
+      <c r="H37" s="7">
+        <f t="shared" si="1"/>
+        <v>0.24178954556496218</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -5436,13 +5475,13 @@
         <f t="shared" si="2"/>
         <v>94.213999999999942</v>
       </c>
-      <c r="G38" s="6">
-        <f t="shared" si="0"/>
-        <v>0.10940487729228845</v>
-      </c>
-      <c r="H38" s="8">
-        <f t="shared" si="1"/>
-        <v>0.15482493052718313</v>
+      <c r="G38" s="8">
+        <f t="shared" si="0"/>
+        <v>9.4648935757763786E-2</v>
+      </c>
+      <c r="H38" s="7">
+        <f t="shared" si="1"/>
+        <v>0.13394297645449216</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -5453,13 +5492,13 @@
         <f t="shared" si="2"/>
         <v>1.0570000000000164</v>
       </c>
-      <c r="G39" s="6">
-        <f t="shared" si="0"/>
-        <v>0.25387353157833492</v>
-      </c>
-      <c r="H39" s="8">
-        <f t="shared" si="1"/>
-        <v>0.35927056327018853</v>
+      <c r="G39" s="8">
+        <f t="shared" si="0"/>
+        <v>0.23911759004381025</v>
+      </c>
+      <c r="H39" s="7">
+        <f t="shared" si="1"/>
+        <v>0.33838860919749758</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -5479,13 +5518,13 @@
         <f t="shared" si="2"/>
         <v>24.513999999999896</v>
       </c>
-      <c r="G40" s="6">
-        <f t="shared" si="0"/>
-        <v>0.2174962199046252</v>
-      </c>
-      <c r="H40" s="8">
-        <f t="shared" si="1"/>
-        <v>0.30779100502708651</v>
+      <c r="G40" s="8">
+        <f t="shared" si="0"/>
+        <v>0.20274027837010053</v>
+      </c>
+      <c r="H40" s="7">
+        <f t="shared" si="1"/>
+        <v>0.28690905095439556</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -5505,13 +5544,13 @@
         <f t="shared" si="2"/>
         <v>57.228999999999928</v>
       </c>
-      <c r="G41" s="6">
-        <f t="shared" si="0"/>
-        <v>0.16676152444461662</v>
-      </c>
-      <c r="H41" s="8">
-        <f t="shared" si="1"/>
-        <v>0.23599351396160098</v>
+      <c r="G41" s="8">
+        <f t="shared" si="0"/>
+        <v>0.15200558291009195</v>
+      </c>
+      <c r="H41" s="7">
+        <f t="shared" si="1"/>
+        <v>0.21511155988891001</v>
       </c>
     </row>
     <row r="42" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -5531,13 +5570,13 @@
         <f t="shared" si="2"/>
         <v>102.54299999999989</v>
       </c>
-      <c r="G42" s="6">
-        <f t="shared" si="0"/>
-        <v>9.6488194471368138E-2</v>
-      </c>
-      <c r="H42" s="8">
-        <f t="shared" si="1"/>
-        <v>0.13654581381972705</v>
+      <c r="G42" s="8">
+        <f t="shared" si="0"/>
+        <v>8.1732252936843455E-2</v>
+      </c>
+      <c r="H42" s="7">
+        <f t="shared" si="1"/>
+        <v>0.11566385974703609</v>
       </c>
     </row>
     <row r="43" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -5554,13 +5593,13 @@
         <f t="shared" si="2"/>
         <v>103.82799999999986</v>
       </c>
-      <c r="G43" s="6">
-        <f t="shared" si="0"/>
-        <v>9.4495405730236862E-2</v>
-      </c>
-      <c r="H43" s="8">
-        <f t="shared" si="1"/>
-        <v>0.13372570756818658</v>
+      <c r="G43" s="8">
+        <f t="shared" si="0"/>
+        <v>7.9739464195712192E-2</v>
+      </c>
+      <c r="H43" s="7">
+        <f t="shared" si="1"/>
+        <v>0.11284375349549562</v>
       </c>
     </row>
     <row r="44" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -5574,13 +5613,13 @@
         <f t="shared" si="2"/>
         <v>105.84099999999989</v>
       </c>
-      <c r="G44" s="6">
-        <f t="shared" si="0"/>
-        <v>9.1373628503857565E-2</v>
-      </c>
-      <c r="H44" s="8">
-        <f t="shared" si="1"/>
-        <v>0.12930790687997554</v>
+      <c r="G44" s="8">
+        <f t="shared" si="0"/>
+        <v>7.6617686969332896E-2</v>
+      </c>
+      <c r="H44" s="7">
+        <f t="shared" si="1"/>
+        <v>0.10842595280728458</v>
       </c>
     </row>
     <row r="45" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -5591,13 +5630,13 @@
         <f t="shared" si="2"/>
         <v>1.7949999999998454</v>
       </c>
-      <c r="G45" s="6">
-        <f t="shared" si="0"/>
-        <v>0.25272903500949867</v>
-      </c>
-      <c r="H45" s="8">
-        <f t="shared" si="1"/>
-        <v>0.35765092248136643</v>
+      <c r="G45" s="8">
+        <f t="shared" si="0"/>
+        <v>0.23797309347497403</v>
+      </c>
+      <c r="H45" s="7">
+        <f t="shared" si="1"/>
+        <v>0.33676896840867548</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -5617,20 +5656,20 @@
         <f t="shared" si="2"/>
         <v>19.930999999999926</v>
       </c>
-      <c r="G46" s="6">
-        <f t="shared" si="0"/>
-        <v>0.22460357461326705</v>
-      </c>
-      <c r="H46" s="8">
-        <f t="shared" si="1"/>
-        <v>0.31784901821837852</v>
+      <c r="G46" s="8">
+        <f t="shared" si="0"/>
+        <v>0.20984763307874235</v>
+      </c>
+      <c r="H46" s="7">
+        <f t="shared" si="1"/>
+        <v>0.29696706414568752</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B47" s="7">
+      <c r="B47" s="6">
         <v>0.3923611111111111</v>
       </c>
       <c r="C47" s="1">
@@ -5646,17 +5685,17 @@
         <f t="shared" si="2"/>
         <v>71.229999999999905</v>
       </c>
-      <c r="G47" s="2">
-        <f t="shared" si="0"/>
-        <v>0.14504865661225905</v>
-      </c>
-      <c r="H47" s="8">
-        <f t="shared" si="1"/>
-        <v>0.20526642631349276</v>
+      <c r="G47" s="8">
+        <f t="shared" si="0"/>
+        <v>0.13029271507773438</v>
+      </c>
+      <c r="H47" s="7">
+        <f t="shared" si="1"/>
+        <v>0.18438447224080182</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="7">
+      <c r="B48" s="6">
         <v>0.5</v>
       </c>
       <c r="D48" s="1">
@@ -5666,13 +5705,13 @@
         <f t="shared" si="2"/>
         <v>1.5469999999997981</v>
       </c>
-      <c r="G48" s="2">
-        <f t="shared" si="0"/>
-        <v>0.25311363548249532</v>
-      </c>
-      <c r="H48" s="8">
-        <f t="shared" si="1"/>
-        <v>0.35819519201473776</v>
+      <c r="G48" s="8">
+        <f t="shared" si="0"/>
+        <v>0.23835769394797066</v>
+      </c>
+      <c r="H48" s="7">
+        <f t="shared" si="1"/>
+        <v>0.33731323794204682</v>
       </c>
     </row>
     <row r="49" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -5695,13 +5734,13 @@
         <f>$D$17-D49</f>
         <v>119.35799999999995</v>
       </c>
-      <c r="G49" s="6">
-        <f>(D49-$B$7)/($B$7-$B$5)</f>
-        <v>7.0411351917186685E-2</v>
-      </c>
-      <c r="H49" s="8">
-        <f t="shared" si="1"/>
-        <v>9.9643022676027176E-2</v>
+      <c r="G49" s="8">
+        <f t="shared" si="0"/>
+        <v>5.5655410382662009E-2</v>
+      </c>
+      <c r="H49" s="7">
+        <f t="shared" si="1"/>
+        <v>7.8761068603336218E-2</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -5721,13 +5760,13 @@
         <f>$D$17-D50</f>
         <v>31.278999999999883</v>
       </c>
-      <c r="G50" s="6">
-        <f>(D50-$B$7)/($B$7-$B$5)</f>
-        <v>0.20700500135695726</v>
-      </c>
-      <c r="H50" s="8">
-        <f t="shared" si="1"/>
-        <v>0.29294429779621356</v>
+      <c r="G50" s="8">
+        <f t="shared" si="0"/>
+        <v>0.19224905982243259</v>
+      </c>
+      <c r="H50" s="7">
+        <f t="shared" si="1"/>
+        <v>0.27206234372352261</v>
       </c>
     </row>
     <row r="51" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -5744,13 +5783,13 @@
         <f>$D$17-D51</f>
         <v>39.186999999999898</v>
       </c>
-      <c r="G51" s="6">
-        <f>(D51-$B$7)/($B$7-$B$5)</f>
-        <v>0.19474120885511564</v>
-      </c>
-      <c r="H51" s="8">
-        <f t="shared" si="1"/>
-        <v>0.27558912251435935</v>
+      <c r="G51" s="8">
+        <f t="shared" si="0"/>
+        <v>0.17998526732059097</v>
+      </c>
+      <c r="H51" s="7">
+        <f t="shared" si="1"/>
+        <v>0.25470716844166841</v>
       </c>
     </row>
     <row r="52" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -5767,13 +5806,13 @@
         <f>$D$17-D52</f>
         <v>40.668999999999869</v>
       </c>
-      <c r="G52" s="6">
-        <f>(D52-$B$7)/($B$7-$B$5)</f>
-        <v>0.19244291086728954</v>
-      </c>
-      <c r="H52" s="8">
-        <f t="shared" si="1"/>
-        <v>0.2723366731254232</v>
+      <c r="G52" s="8">
+        <f t="shared" si="0"/>
+        <v>0.17768696933276487</v>
+      </c>
+      <c r="H52" s="7">
+        <f t="shared" si="1"/>
+        <v>0.25145471905273226</v>
       </c>
     </row>
     <row r="53" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -5888,7 +5927,7 @@
   <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15:H17"/>
+      <selection activeCell="G17" sqref="G17:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5976,6 +6015,13 @@
         <f>(B7-B5)/D11</f>
         <v>1.4034582469485746</v>
       </c>
+      <c r="C13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="1">
+        <f>D17-B9</f>
+        <v>18.100999999999999</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H15" t="s">
@@ -6027,13 +6073,13 @@
       <c r="F17" s="4">
         <v>0</v>
       </c>
-      <c r="G17" s="6">
-        <f>(D17-$B$7)/($B$7-$B$5)</f>
-        <v>0.27729536587463555</v>
-      </c>
-      <c r="H17" s="8">
-        <f>(D17-$B$7)/$D$11</f>
-        <v>0.3891724680773796</v>
+      <c r="G17" s="8">
+        <f>(D17-$D$13-$B$7)/($B$7-$B$5)</f>
+        <v>0.24899021884455713</v>
+      </c>
+      <c r="H17" s="7">
+        <f>G17*$B$13</f>
+        <v>0.34944737604692411</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -6056,13 +6102,13 @@
         <f>$D$17-D18</f>
         <v>-1.4539999999999509</v>
       </c>
-      <c r="G18" s="6">
-        <f t="shared" ref="G18:G46" si="0">(D18-$B$7)/($B$7-$B$5)</f>
-        <v>0.27956903494163365</v>
-      </c>
-      <c r="H18" s="8">
-        <f t="shared" ref="H18:H53" si="1">(D18-$B$7)/$D$11</f>
-        <v>0.39236346768028996</v>
+      <c r="G18" s="8">
+        <f t="shared" ref="G18:G53" si="0">(D18-$D$13-$B$7)/($B$7-$B$5)</f>
+        <v>0.25126388791155524</v>
+      </c>
+      <c r="H18" s="7">
+        <f t="shared" ref="H18:H53" si="1">G18*$B$13</f>
+        <v>0.35263837564983447</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -6085,13 +6131,13 @@
         <f t="shared" ref="F19:F46" si="2">$D$17-D19</f>
         <v>2.9690000000000509</v>
       </c>
-      <c r="G19" s="6">
-        <f t="shared" si="0"/>
-        <v>0.27265263997372929</v>
-      </c>
-      <c r="H19" s="8">
-        <f t="shared" si="1"/>
-        <v>0.38265659612343095</v>
+      <c r="G19" s="8">
+        <f t="shared" si="0"/>
+        <v>0.24434749294365088</v>
+      </c>
+      <c r="H19" s="7">
+        <f t="shared" si="1"/>
+        <v>0.34293150409297546</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -6102,13 +6148,13 @@
         <f t="shared" si="2"/>
         <v>-1.3689999999999145</v>
       </c>
-      <c r="G20" s="6">
-        <f t="shared" si="0"/>
-        <v>0.27943611756151332</v>
-      </c>
-      <c r="H20" s="8">
-        <f t="shared" si="1"/>
-        <v>0.3921769236869973</v>
+      <c r="G20" s="8">
+        <f t="shared" si="0"/>
+        <v>0.25113097053143491</v>
+      </c>
+      <c r="H20" s="7">
+        <f t="shared" si="1"/>
+        <v>0.35245183165654176</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -6131,13 +6177,13 @@
         <f t="shared" si="2"/>
         <v>10.150000000000091</v>
       </c>
-      <c r="G21" s="6">
-        <f t="shared" si="0"/>
-        <v>0.26142346695439367</v>
-      </c>
-      <c r="H21" s="8">
-        <f t="shared" si="1"/>
-        <v>0.36689692064303192</v>
+      <c r="G21" s="8">
+        <f t="shared" si="0"/>
+        <v>0.23311831992431523</v>
+      </c>
+      <c r="H21" s="7">
+        <f t="shared" si="1"/>
+        <v>0.32717182861257643</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -6148,13 +6194,13 @@
         <f t="shared" si="2"/>
         <v>-0.89899999999988722</v>
       </c>
-      <c r="G22" s="6">
-        <f t="shared" si="0"/>
-        <v>0.27870116263614253</v>
-      </c>
-      <c r="H22" s="8">
-        <f t="shared" si="1"/>
-        <v>0.39114544513585014</v>
+      <c r="G22" s="8">
+        <f t="shared" si="0"/>
+        <v>0.25039601560606406</v>
+      </c>
+      <c r="H22" s="7">
+        <f t="shared" si="1"/>
+        <v>0.3514203531053946</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -6174,13 +6220,13 @@
         <f t="shared" si="2"/>
         <v>3.8040000000000873</v>
       </c>
-      <c r="G23" s="6">
-        <f t="shared" si="0"/>
-        <v>0.27134692218078321</v>
-      </c>
-      <c r="H23" s="8">
-        <f t="shared" si="1"/>
-        <v>0.38082407571873333</v>
+      <c r="G23" s="8">
+        <f t="shared" si="0"/>
+        <v>0.24304177515070483</v>
+      </c>
+      <c r="H23" s="7">
+        <f t="shared" si="1"/>
+        <v>0.34109898368827785</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -6200,13 +6246,13 @@
         <f t="shared" si="2"/>
         <v>8.6820000000000164</v>
       </c>
-      <c r="G24" s="6">
-        <f t="shared" si="0"/>
-        <v>0.26371902829576471</v>
-      </c>
-      <c r="H24" s="8">
-        <f t="shared" si="1"/>
-        <v>0.37011864513895548</v>
+      <c r="G24" s="8">
+        <f t="shared" si="0"/>
+        <v>0.23541388126568627</v>
+      </c>
+      <c r="H24" s="7">
+        <f t="shared" si="1"/>
+        <v>0.33039355310849994</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -6221,13 +6267,13 @@
         <f t="shared" si="2"/>
         <v>10.889999999999986</v>
       </c>
-      <c r="G25" s="6">
-        <f t="shared" si="0"/>
-        <v>0.26026630388040578</v>
-      </c>
-      <c r="H25" s="8">
-        <f t="shared" si="1"/>
-        <v>0.36527289058377926</v>
+      <c r="G25" s="8">
+        <f t="shared" si="0"/>
+        <v>0.23196115685032734</v>
+      </c>
+      <c r="H25" s="7">
+        <f t="shared" si="1"/>
+        <v>0.32554779855332372</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -6244,13 +6290,13 @@
         <f t="shared" si="2"/>
         <v>12.43100000000004</v>
       </c>
-      <c r="G26" s="6">
-        <f t="shared" si="0"/>
-        <v>0.25785658996551969</v>
-      </c>
-      <c r="H26" s="8">
-        <f t="shared" si="1"/>
-        <v>0.36189095771714569</v>
+      <c r="G26" s="8">
+        <f t="shared" si="0"/>
+        <v>0.22955144293544127</v>
+      </c>
+      <c r="H26" s="7">
+        <f t="shared" si="1"/>
+        <v>0.32216586568669014</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -6261,13 +6307,13 @@
         <f t="shared" si="2"/>
         <v>-0.80199999999990723</v>
       </c>
-      <c r="G27" s="6">
-        <f t="shared" si="0"/>
-        <v>0.27854948044941708</v>
-      </c>
-      <c r="H27" s="8">
-        <f t="shared" si="1"/>
-        <v>0.39093256551997513</v>
+      <c r="G27" s="8">
+        <f t="shared" si="0"/>
+        <v>0.25024433341933866</v>
+      </c>
+      <c r="H27" s="7">
+        <f t="shared" si="1"/>
+        <v>0.35120747348951964</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -6287,13 +6333,13 @@
         <f t="shared" si="2"/>
         <v>1.6190000000001419</v>
       </c>
-      <c r="G28" s="6">
-        <f t="shared" si="0"/>
-        <v>0.27476368071681551</v>
-      </c>
-      <c r="H28" s="8">
-        <f t="shared" si="1"/>
-        <v>0.38561935366395972</v>
+      <c r="G28" s="8">
+        <f t="shared" si="0"/>
+        <v>0.24645853368673706</v>
+      </c>
+      <c r="H28" s="7">
+        <f t="shared" si="1"/>
+        <v>0.34589426163350423</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -6310,13 +6356,13 @@
         <f t="shared" si="2"/>
         <v>3.8880000000001473</v>
       </c>
-      <c r="G29" s="6">
-        <f t="shared" si="0"/>
-        <v>0.27121556853454665</v>
-      </c>
-      <c r="H29" s="8">
-        <f t="shared" si="1"/>
-        <v>0.38063972636065585</v>
+      <c r="G29" s="8">
+        <f t="shared" si="0"/>
+        <v>0.24291042150446823</v>
+      </c>
+      <c r="H29" s="7">
+        <f t="shared" si="1"/>
+        <v>0.34091463433020031</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -6327,13 +6373,13 @@
         <f t="shared" si="2"/>
         <v>-0.77499999999986358</v>
       </c>
-      <c r="G30" s="6">
-        <f t="shared" si="0"/>
-        <v>0.2785072596345553</v>
-      </c>
-      <c r="H30" s="8">
-        <f t="shared" si="1"/>
-        <v>0.39087331036916445</v>
+      <c r="G30" s="8">
+        <f t="shared" si="0"/>
+        <v>0.25020211260447683</v>
+      </c>
+      <c r="H30" s="7">
+        <f t="shared" si="1"/>
+        <v>0.35114821833870891</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -6356,13 +6402,13 @@
         <f t="shared" si="2"/>
         <v>13.41700000000003</v>
       </c>
-      <c r="G31" s="6">
-        <f t="shared" si="0"/>
-        <v>0.25631474835612483</v>
-      </c>
-      <c r="H31" s="8">
-        <f t="shared" si="1"/>
-        <v>0.35972704739495198</v>
+      <c r="G31" s="8">
+        <f t="shared" si="0"/>
+        <v>0.22800960132604639</v>
+      </c>
+      <c r="H31" s="7">
+        <f t="shared" si="1"/>
+        <v>0.32000195536449644</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -6373,13 +6419,13 @@
         <f t="shared" si="2"/>
         <v>-0.35999999999989996</v>
       </c>
-      <c r="G32" s="6">
-        <f t="shared" si="0"/>
-        <v>0.27785831007279177</v>
-      </c>
-      <c r="H32" s="8">
-        <f t="shared" si="1"/>
-        <v>0.38996253675485376</v>
+      <c r="G32" s="8">
+        <f t="shared" si="0"/>
+        <v>0.24955316304271333</v>
+      </c>
+      <c r="H32" s="7">
+        <f t="shared" si="1"/>
+        <v>0.35023744472439827</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -6399,13 +6445,13 @@
         <f t="shared" si="2"/>
         <v>4.1020000000000891</v>
       </c>
-      <c r="G33" s="6">
-        <f t="shared" si="0"/>
-        <v>0.27088092948342046</v>
-      </c>
-      <c r="H33" s="8">
-        <f t="shared" si="1"/>
-        <v>0.38017007442460177</v>
+      <c r="G33" s="8">
+        <f t="shared" si="0"/>
+        <v>0.24257578245334205</v>
+      </c>
+      <c r="H33" s="7">
+        <f t="shared" si="1"/>
+        <v>0.34044498239414622</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -6425,13 +6471,13 @@
         <f t="shared" si="2"/>
         <v>8.125</v>
       </c>
-      <c r="G34" s="6">
-        <f t="shared" si="0"/>
-        <v>0.26459002806902332</v>
-      </c>
-      <c r="H34" s="8">
-        <f t="shared" si="1"/>
-        <v>0.37134105695382558</v>
+      <c r="G34" s="8">
+        <f t="shared" si="0"/>
+        <v>0.23628488103894491</v>
+      </c>
+      <c r="H34" s="7">
+        <f t="shared" si="1"/>
+        <v>0.33161596492337009</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -6448,13 +6494,13 @@
         <f t="shared" si="2"/>
         <v>9.1030000000000655</v>
       </c>
-      <c r="G35" s="6">
-        <f t="shared" si="0"/>
-        <v>0.26306069633069845</v>
-      </c>
-      <c r="H35" s="8">
-        <f t="shared" si="1"/>
-        <v>0.36919470371335333</v>
+      <c r="G35" s="8">
+        <f t="shared" si="0"/>
+        <v>0.23475554930062001</v>
+      </c>
+      <c r="H35" s="7">
+        <f t="shared" si="1"/>
+        <v>0.32946961168289784</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -6465,13 +6511,13 @@
         <f t="shared" si="2"/>
         <v>0.13800000000014734</v>
       </c>
-      <c r="G36" s="6">
-        <f t="shared" si="0"/>
-        <v>0.27707957059867538</v>
-      </c>
-      <c r="H36" s="8">
-        <f t="shared" si="1"/>
-        <v>0.38886960841768076</v>
+      <c r="G36" s="8">
+        <f t="shared" si="0"/>
+        <v>0.24877442356859697</v>
+      </c>
+      <c r="H36" s="7">
+        <f t="shared" si="1"/>
+        <v>0.34914451638722527</v>
       </c>
     </row>
     <row r="37" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -6491,13 +6537,13 @@
         <f t="shared" si="2"/>
         <v>7.734000000000151</v>
       </c>
-      <c r="G37" s="6">
-        <f t="shared" si="0"/>
-        <v>0.26520144801757622</v>
-      </c>
-      <c r="H37" s="8">
-        <f t="shared" si="1"/>
-        <v>0.3721991593229711</v>
+      <c r="G37" s="8">
+        <f t="shared" si="0"/>
+        <v>0.23689630098749781</v>
+      </c>
+      <c r="H37" s="7">
+        <f t="shared" si="1"/>
+        <v>0.33247406729251555</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -6520,13 +6566,13 @@
         <f t="shared" si="2"/>
         <v>14.293999999999983</v>
       </c>
-      <c r="G38" s="6">
-        <f t="shared" si="0"/>
-        <v>0.25494335374006066</v>
-      </c>
-      <c r="H38" s="8">
-        <f t="shared" si="1"/>
-        <v>0.35780235231121582</v>
+      <c r="G38" s="8">
+        <f t="shared" si="0"/>
+        <v>0.22663820670998222</v>
+      </c>
+      <c r="H38" s="7">
+        <f t="shared" si="1"/>
+        <v>0.31807726028076033</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -6537,13 +6583,13 @@
         <f t="shared" si="2"/>
         <v>-1.0219999999999345</v>
       </c>
-      <c r="G39" s="6">
-        <f t="shared" si="0"/>
-        <v>0.27889350190384599</v>
-      </c>
-      <c r="H39" s="8">
-        <f t="shared" si="1"/>
-        <v>0.39141538526732067</v>
+      <c r="G39" s="8">
+        <f t="shared" si="0"/>
+        <v>0.25058835487376757</v>
+      </c>
+      <c r="H39" s="7">
+        <f t="shared" si="1"/>
+        <v>0.35169029323686513</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -6563,13 +6609,13 @@
         <f t="shared" si="2"/>
         <v>2.9400000000000546</v>
       </c>
-      <c r="G40" s="6">
-        <f t="shared" si="0"/>
-        <v>0.27269798825635855</v>
-      </c>
-      <c r="H40" s="8">
-        <f t="shared" si="1"/>
-        <v>0.38272024054467196</v>
+      <c r="G40" s="8">
+        <f t="shared" si="0"/>
+        <v>0.24439284122628013</v>
+      </c>
+      <c r="H40" s="7">
+        <f t="shared" si="1"/>
+        <v>0.34299514851421642</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -6589,13 +6635,13 @@
         <f t="shared" si="2"/>
         <v>7.0820000000001073</v>
       </c>
-      <c r="G41" s="6">
-        <f t="shared" si="0"/>
-        <v>0.2662210025097928</v>
-      </c>
-      <c r="H41" s="8">
-        <f t="shared" si="1"/>
-        <v>0.37363006148328592</v>
+      <c r="G41" s="8">
+        <f t="shared" si="0"/>
+        <v>0.23791585547971439</v>
+      </c>
+      <c r="H41" s="7">
+        <f t="shared" si="1"/>
+        <v>0.33390496945283038</v>
       </c>
     </row>
     <row r="42" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -6618,13 +6664,13 @@
         <f t="shared" si="2"/>
         <v>11.870000000000005</v>
       </c>
-      <c r="G42" s="6">
-        <f t="shared" si="0"/>
-        <v>0.25873384467431343</v>
-      </c>
-      <c r="H42" s="8">
-        <f t="shared" si="1"/>
-        <v>0.36312214807287668</v>
+      <c r="G42" s="8">
+        <f t="shared" si="0"/>
+        <v>0.23042869764423499</v>
+      </c>
+      <c r="H42" s="7">
+        <f t="shared" si="1"/>
+        <v>0.32339705604242119</v>
       </c>
     </row>
     <row r="43" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -6638,13 +6684,13 @@
         <f t="shared" si="2"/>
         <v>2.7480000000000473</v>
       </c>
-      <c r="G43" s="6">
-        <f t="shared" si="0"/>
-        <v>0.27299822516204197</v>
-      </c>
-      <c r="H43" s="8">
-        <f t="shared" si="1"/>
-        <v>0.38314161050599166</v>
+      <c r="G43" s="8">
+        <f t="shared" si="0"/>
+        <v>0.24469307813196353</v>
+      </c>
+      <c r="H43" s="7">
+        <f t="shared" si="1"/>
+        <v>0.34341651847553611</v>
       </c>
     </row>
     <row r="44" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -6667,20 +6713,20 @@
         <f t="shared" si="2"/>
         <v>-0.28399999999987813</v>
       </c>
-      <c r="G44" s="6">
-        <f t="shared" si="0"/>
-        <v>0.27773946629762536</v>
-      </c>
-      <c r="H44" s="8">
-        <f t="shared" si="1"/>
-        <v>0.38979574447849802</v>
+      <c r="G44" s="8">
+        <f t="shared" si="0"/>
+        <v>0.24943431926754697</v>
+      </c>
+      <c r="H44" s="7">
+        <f t="shared" si="1"/>
+        <v>0.35007065244804253</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B45" s="7">
+      <c r="B45" s="6">
         <v>0.3923611111111111</v>
       </c>
       <c r="C45" s="1">
@@ -6696,17 +6742,17 @@
         <f t="shared" si="2"/>
         <v>5.4570000000001073</v>
       </c>
-      <c r="G45" s="2">
-        <f t="shared" si="0"/>
-        <v>0.26876207007091524</v>
-      </c>
-      <c r="H45" s="8">
-        <f t="shared" si="1"/>
-        <v>0.37719634370799671</v>
+      <c r="G45" s="8">
+        <f t="shared" si="0"/>
+        <v>0.24045692304083685</v>
+      </c>
+      <c r="H45" s="7">
+        <f t="shared" si="1"/>
+        <v>0.33747125167754122</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="7">
+      <c r="B46" s="6">
         <v>0.5</v>
       </c>
       <c r="D46" s="1">
@@ -6716,13 +6762,13 @@
         <f t="shared" si="2"/>
         <v>1.6490000000001146</v>
       </c>
-      <c r="G46" s="2">
-        <f t="shared" si="0"/>
-        <v>0.27471676870030248</v>
-      </c>
-      <c r="H46" s="8">
-        <f t="shared" si="1"/>
-        <v>0.38555351460750359</v>
+      <c r="G46" s="8">
+        <f t="shared" si="0"/>
+        <v>0.2464116216702241</v>
+      </c>
+      <c r="H46" s="7">
+        <f t="shared" si="1"/>
+        <v>0.3458284225770481</v>
       </c>
     </row>
     <row r="47" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -6742,13 +6788,13 @@
         <f t="shared" ref="F47:F53" si="3">$D$17-D47</f>
         <v>14.006000000000085</v>
       </c>
-      <c r="G47" s="6">
-        <f t="shared" ref="G47:G53" si="4">(D47-$B$7)/($B$7-$B$5)</f>
-        <v>0.25539370909858555</v>
-      </c>
-      <c r="H47" s="8">
-        <f t="shared" si="1"/>
-        <v>0.35843440725319514</v>
+      <c r="G47" s="8">
+        <f t="shared" si="0"/>
+        <v>0.22708856206850714</v>
+      </c>
+      <c r="H47" s="7">
+        <f t="shared" si="1"/>
+        <v>0.3187093152227396</v>
       </c>
     </row>
     <row r="48" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -6768,13 +6814,13 @@
         <f t="shared" si="3"/>
         <v>18.617000000000075</v>
       </c>
-      <c r="G48" s="6">
-        <f t="shared" si="4"/>
-        <v>0.2481833321605329</v>
-      </c>
-      <c r="H48" s="8">
-        <f t="shared" si="1"/>
-        <v>0.34831494427587728</v>
+      <c r="G48" s="8">
+        <f t="shared" si="0"/>
+        <v>0.21987818513045448</v>
+      </c>
+      <c r="H48" s="7">
+        <f t="shared" si="1"/>
+        <v>0.30858985224542179</v>
       </c>
     </row>
     <row r="49" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -6794,13 +6840,13 @@
         <f t="shared" si="3"/>
         <v>22.381000000000085</v>
       </c>
-      <c r="G49" s="6">
-        <f t="shared" si="4"/>
-        <v>0.24229743782203142</v>
-      </c>
-      <c r="H49" s="8">
-        <f t="shared" si="1"/>
-        <v>0.34005433732583945</v>
+      <c r="G49" s="8">
+        <f t="shared" si="0"/>
+        <v>0.213992290791953</v>
+      </c>
+      <c r="H49" s="7">
+        <f t="shared" si="1"/>
+        <v>0.30032924529538396</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -6820,13 +6866,13 @@
         <f t="shared" si="3"/>
         <v>25.085000000000036</v>
       </c>
-      <c r="G50" s="6">
-        <f t="shared" si="4"/>
-        <v>0.23806910140032372</v>
-      </c>
-      <c r="H50" s="8">
-        <f t="shared" si="1"/>
-        <v>0.33412004370392079</v>
+      <c r="G50" s="8">
+        <f t="shared" si="0"/>
+        <v>0.20976395437024531</v>
+      </c>
+      <c r="H50" s="7">
+        <f t="shared" si="1"/>
+        <v>0.29439495167346524</v>
       </c>
     </row>
     <row r="51" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -6846,13 +6892,13 @@
         <f t="shared" si="3"/>
         <v>28.26400000000001</v>
       </c>
-      <c r="G51" s="6">
-        <f t="shared" si="4"/>
-        <v>0.23309799138382639</v>
-      </c>
-      <c r="H51" s="8">
-        <f t="shared" si="1"/>
-        <v>0.3271432983547789</v>
+      <c r="G51" s="8">
+        <f t="shared" si="0"/>
+        <v>0.20479284435374798</v>
+      </c>
+      <c r="H51" s="7">
+        <f t="shared" si="1"/>
+        <v>0.28741820632432341</v>
       </c>
     </row>
     <row r="52" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -6872,13 +6918,13 @@
         <f t="shared" si="3"/>
         <v>40.926000000000045</v>
       </c>
-      <c r="G52" s="6">
-        <f t="shared" si="4"/>
-        <v>0.21329799294756022</v>
-      </c>
-      <c r="H52" s="8">
-        <f t="shared" si="1"/>
-        <v>0.29935482725983231</v>
+      <c r="G52" s="8">
+        <f t="shared" si="0"/>
+        <v>0.1849928459174818</v>
+      </c>
+      <c r="H52" s="7">
+        <f t="shared" si="1"/>
+        <v>0.25962973522937677</v>
       </c>
     </row>
     <row r="53" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -6898,13 +6944,13 @@
         <f t="shared" si="3"/>
         <v>46.668000000000006</v>
       </c>
-      <c r="G53" s="6">
-        <f t="shared" si="4"/>
-        <v>0.20431903298696638</v>
-      </c>
-      <c r="H53" s="8">
-        <f t="shared" si="1"/>
-        <v>0.28675323185411578</v>
+      <c r="G53" s="8">
+        <f t="shared" si="0"/>
+        <v>0.17601388595688794</v>
+      </c>
+      <c r="H53" s="7">
+        <f t="shared" si="1"/>
+        <v>0.24702813982366029</v>
       </c>
     </row>
     <row r="54" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -6921,7 +6967,7 @@
   <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15:H17"/>
+      <selection activeCell="G17" sqref="G17:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7009,6 +7055,13 @@
         <f>(B7-B5)/D11</f>
         <v>1.3842062224921667</v>
       </c>
+      <c r="C13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="1">
+        <f>D17-B9</f>
+        <v>11.370999999999981</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H15" t="s">
@@ -7060,13 +7113,13 @@
       <c r="F17" s="4">
         <v>0</v>
       </c>
-      <c r="G17" s="6">
-        <f>(D17-$B$7)/($B$7-$B$5)</f>
-        <v>0.27982502065815934</v>
-      </c>
-      <c r="H17" s="8">
-        <f>(D17-$B$7)/$D$11</f>
-        <v>0.38733553480402322</v>
+      <c r="G17" s="8">
+        <f>(D17-$D$13-$B$7)/($B$7-$B$5)</f>
+        <v>0.26189342282048517</v>
+      </c>
+      <c r="H17" s="7">
+        <f>G17*$B$13</f>
+        <v>0.36251450549788761</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -7089,13 +7142,13 @@
         <f>$D$17-D18</f>
         <v>-3.1349999999999909</v>
       </c>
-      <c r="G18" s="6">
-        <f t="shared" ref="G18:G47" si="0">(D18-$B$7)/($B$7-$B$5)</f>
-        <v>0.28476878630947483</v>
-      </c>
-      <c r="H18" s="8">
-        <f t="shared" ref="H18:H54" si="1">(D18-$B$7)/$D$11</f>
-        <v>0.3941787259811172</v>
+      <c r="G18" s="8">
+        <f t="shared" ref="G18:G54" si="0">(D18-$D$13-$B$7)/($B$7-$B$5)</f>
+        <v>0.26683718847180066</v>
+      </c>
+      <c r="H18" s="7">
+        <f t="shared" ref="H18:H54" si="1">G18*$B$13</f>
+        <v>0.36935769667498153</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -7118,13 +7171,13 @@
         <f t="shared" ref="F19:F47" si="2">$D$17-D19</f>
         <v>-0.13200000000006185</v>
       </c>
-      <c r="G19" s="6">
-        <f t="shared" si="0"/>
-        <v>0.28003317921189902</v>
-      </c>
-      <c r="H19" s="8">
-        <f t="shared" si="1"/>
-        <v>0.38762366916937468</v>
+      <c r="G19" s="8">
+        <f t="shared" si="0"/>
+        <v>0.2621015813742249</v>
+      </c>
+      <c r="H19" s="7">
+        <f t="shared" si="1"/>
+        <v>0.36280263986323907</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -7135,13 +7188,13 @@
         <f t="shared" si="2"/>
         <v>-3.1320000000000618</v>
       </c>
-      <c r="G20" s="6">
-        <f t="shared" si="0"/>
-        <v>0.28476405543325356</v>
-      </c>
-      <c r="H20" s="8">
-        <f t="shared" si="1"/>
-        <v>0.39417217747281391</v>
+      <c r="G20" s="8">
+        <f t="shared" si="0"/>
+        <v>0.26683245759557944</v>
+      </c>
+      <c r="H20" s="7">
+        <f t="shared" si="1"/>
+        <v>0.3693511481666783</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -7164,13 +7217,13 @@
         <f t="shared" si="2"/>
         <v>7.7599999999999909</v>
       </c>
-      <c r="G21" s="6">
-        <f t="shared" si="0"/>
-        <v>0.26758782083225557</v>
-      </c>
-      <c r="H21" s="8">
-        <f t="shared" si="1"/>
-        <v>0.37039672665912721</v>
+      <c r="G21" s="8">
+        <f t="shared" si="0"/>
+        <v>0.24965622299458146</v>
+      </c>
+      <c r="H21" s="7">
+        <f t="shared" si="1"/>
+        <v>0.3455756973529916</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -7181,13 +7234,13 @@
         <f t="shared" si="2"/>
         <v>2.6489999999998872</v>
       </c>
-      <c r="G22" s="6">
-        <f t="shared" si="0"/>
-        <v>0.27564765695470345</v>
-      </c>
-      <c r="H22" s="8">
-        <f t="shared" si="1"/>
-        <v>0.3815532019720867</v>
+      <c r="G22" s="8">
+        <f t="shared" si="0"/>
+        <v>0.25771605911702933</v>
+      </c>
+      <c r="H22" s="7">
+        <f t="shared" si="1"/>
+        <v>0.35673217266595109</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -7207,13 +7260,13 @@
         <f t="shared" si="2"/>
         <v>6.6689999999999827</v>
       </c>
-      <c r="G23" s="6">
-        <f t="shared" si="0"/>
-        <v>0.26930828281808822</v>
-      </c>
-      <c r="H23" s="8">
-        <f t="shared" si="1"/>
-        <v>0.37277820084547797</v>
+      <c r="G23" s="8">
+        <f t="shared" si="0"/>
+        <v>0.25137668498041404</v>
+      </c>
+      <c r="H23" s="7">
+        <f t="shared" si="1"/>
+        <v>0.3479571715393423</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -7233,13 +7286,13 @@
         <f t="shared" si="2"/>
         <v>10.965999999999894</v>
       </c>
-      <c r="G24" s="6">
-        <f t="shared" si="0"/>
-        <v>0.26253209111036818</v>
-      </c>
-      <c r="H24" s="8">
-        <f t="shared" si="1"/>
-        <v>0.36339855411885208</v>
+      <c r="G24" s="8">
+        <f t="shared" si="0"/>
+        <v>0.24460049327269404</v>
+      </c>
+      <c r="H24" s="7">
+        <f t="shared" si="1"/>
+        <v>0.33857752481271647</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -7254,13 +7307,13 @@
         <f t="shared" si="2"/>
         <v>13.168999999999983</v>
       </c>
-      <c r="G25" s="6">
-        <f t="shared" si="0"/>
-        <v>0.25905805100515339</v>
-      </c>
-      <c r="H25" s="8">
-        <f t="shared" si="1"/>
-        <v>0.3585897661880264</v>
+      <c r="G25" s="8">
+        <f t="shared" si="0"/>
+        <v>0.24112645316747922</v>
+      </c>
+      <c r="H25" s="7">
+        <f t="shared" si="1"/>
+        <v>0.33376873688189074</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -7277,13 +7330,13 @@
         <f t="shared" si="2"/>
         <v>14.560999999999922</v>
       </c>
-      <c r="G26" s="6">
-        <f t="shared" si="0"/>
-        <v>0.25686292443844494</v>
-      </c>
-      <c r="H26" s="8">
-        <f t="shared" si="1"/>
-        <v>0.35555125833523071</v>
+      <c r="G26" s="8">
+        <f t="shared" si="0"/>
+        <v>0.23893132660077082</v>
+      </c>
+      <c r="H26" s="7">
+        <f t="shared" si="1"/>
+        <v>0.33073022902909516</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -7294,13 +7347,13 @@
         <f t="shared" si="2"/>
         <v>8.6409999999999627</v>
       </c>
-      <c r="G27" s="6">
-        <f t="shared" si="0"/>
-        <v>0.26619852018191786</v>
-      </c>
-      <c r="H27" s="8">
-        <f t="shared" si="1"/>
-        <v>0.36847364805401733</v>
+      <c r="G27" s="8">
+        <f t="shared" si="0"/>
+        <v>0.24826692234424372</v>
+      </c>
+      <c r="H27" s="7">
+        <f t="shared" si="1"/>
+        <v>0.34365261874788172</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -7320,13 +7373,13 @@
         <f t="shared" si="2"/>
         <v>10.520999999999958</v>
       </c>
-      <c r="G28" s="6">
-        <f t="shared" si="0"/>
-        <v>0.26323383774986903</v>
-      </c>
-      <c r="H28" s="8">
-        <f t="shared" si="1"/>
-        <v>0.36436991618386211</v>
+      <c r="G28" s="8">
+        <f t="shared" si="0"/>
+        <v>0.24530223991219488</v>
+      </c>
+      <c r="H28" s="7">
+        <f t="shared" si="1"/>
+        <v>0.3395488868777265</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -7343,13 +7396,13 @@
         <f t="shared" si="2"/>
         <v>12.476999999999975</v>
       </c>
-      <c r="G29" s="6">
-        <f t="shared" si="0"/>
-        <v>0.26014930645354584</v>
-      </c>
-      <c r="H29" s="8">
-        <f t="shared" si="1"/>
-        <v>0.36010028877001971</v>
+      <c r="G29" s="8">
+        <f t="shared" si="0"/>
+        <v>0.24221770861587169</v>
+      </c>
+      <c r="H29" s="7">
+        <f t="shared" si="1"/>
+        <v>0.33527925946388409</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -7360,13 +7413,13 @@
         <f t="shared" si="2"/>
         <v>10.678999999999974</v>
       </c>
-      <c r="G30" s="6">
-        <f t="shared" si="0"/>
-        <v>0.26298467826887767</v>
-      </c>
-      <c r="H30" s="8">
-        <f t="shared" si="1"/>
-        <v>0.36402502807988096</v>
+      <c r="G30" s="8">
+        <f t="shared" si="0"/>
+        <v>0.2450530804312035</v>
+      </c>
+      <c r="H30" s="7">
+        <f t="shared" si="1"/>
+        <v>0.3392039987737453</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -7389,13 +7442,13 @@
         <f t="shared" si="2"/>
         <v>23.113999999999919</v>
       </c>
-      <c r="G31" s="6">
-        <f t="shared" si="0"/>
-        <v>0.24337519633136315</v>
-      </c>
-      <c r="H31" s="8">
-        <f t="shared" si="1"/>
-        <v>0.33688146116212564</v>
+      <c r="G31" s="8">
+        <f t="shared" si="0"/>
+        <v>0.225443598493689</v>
+      </c>
+      <c r="H31" s="7">
+        <f t="shared" si="1"/>
+        <v>0.31206043185598997</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -7406,13 +7459,13 @@
         <f t="shared" si="2"/>
         <v>16.710999999999899</v>
       </c>
-      <c r="G32" s="6">
-        <f t="shared" si="0"/>
-        <v>0.25347246314647426</v>
-      </c>
-      <c r="H32" s="8">
-        <f t="shared" si="1"/>
-        <v>0.35085816071776604</v>
+      <c r="G32" s="8">
+        <f t="shared" si="0"/>
+        <v>0.23554086530880008</v>
+      </c>
+      <c r="H32" s="7">
+        <f t="shared" si="1"/>
+        <v>0.32603713141163043</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -7432,13 +7485,13 @@
         <f t="shared" si="2"/>
         <v>20.152999999999906</v>
       </c>
-      <c r="G33" s="6">
-        <f t="shared" si="0"/>
-        <v>0.24804457116184012</v>
-      </c>
-      <c r="H33" s="8">
-        <f t="shared" si="1"/>
-        <v>0.34334483885762013</v>
+      <c r="G33" s="8">
+        <f t="shared" si="0"/>
+        <v>0.23011297332416597</v>
+      </c>
+      <c r="H33" s="7">
+        <f t="shared" si="1"/>
+        <v>0.31852380955148452</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -7458,13 +7511,13 @@
         <f t="shared" si="2"/>
         <v>23.700999999999908</v>
       </c>
-      <c r="G34" s="6">
-        <f t="shared" si="0"/>
-        <v>0.24244952155071814</v>
-      </c>
-      <c r="H34" s="8">
-        <f t="shared" si="1"/>
-        <v>0.3356001363707527</v>
+      <c r="G34" s="8">
+        <f t="shared" si="0"/>
+        <v>0.22451792371304399</v>
+      </c>
+      <c r="H34" s="7">
+        <f t="shared" si="1"/>
+        <v>0.31077910706461709</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -7481,13 +7534,13 @@
         <f t="shared" si="2"/>
         <v>24.504999999999995</v>
       </c>
-      <c r="G35" s="6">
-        <f t="shared" si="0"/>
-        <v>0.24118164672339498</v>
-      </c>
-      <c r="H35" s="8">
-        <f t="shared" si="1"/>
-        <v>0.33384513614543082</v>
+      <c r="G35" s="8">
+        <f t="shared" si="0"/>
+        <v>0.22325004888572084</v>
+      </c>
+      <c r="H35" s="7">
+        <f t="shared" si="1"/>
+        <v>0.30902410683929521</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -7498,13 +7551,13 @@
         <f t="shared" si="2"/>
         <v>20.769999999999982</v>
       </c>
-      <c r="G36" s="6">
-        <f t="shared" si="0"/>
-        <v>0.2470715876189814</v>
-      </c>
-      <c r="H36" s="8">
-        <f t="shared" si="1"/>
-        <v>0.34199802898321263</v>
+      <c r="G36" s="8">
+        <f t="shared" si="0"/>
+        <v>0.22913998978130726</v>
+      </c>
+      <c r="H36" s="7">
+        <f t="shared" si="1"/>
+        <v>0.31717699967707702</v>
       </c>
     </row>
     <row r="37" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -7524,13 +7577,13 @@
         <f t="shared" si="2"/>
         <v>27.078999999999951</v>
       </c>
-      <c r="G37" s="6">
-        <f t="shared" si="0"/>
-        <v>0.23712255492547285</v>
-      </c>
-      <c r="H37" s="8">
-        <f t="shared" si="1"/>
-        <v>0.32822651602108011</v>
+      <c r="G37" s="8">
+        <f t="shared" si="0"/>
+        <v>0.2191909570877987</v>
+      </c>
+      <c r="H37" s="7">
+        <f t="shared" si="1"/>
+        <v>0.30340548671494444</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -7553,13 +7606,13 @@
         <f t="shared" si="2"/>
         <v>32.967999999999961</v>
       </c>
-      <c r="G38" s="6">
-        <f t="shared" si="0"/>
-        <v>0.22783584490295386</v>
-      </c>
-      <c r="H38" s="8">
-        <f t="shared" si="1"/>
-        <v>0.31537179422142891</v>
+      <c r="G38" s="8">
+        <f t="shared" si="0"/>
+        <v>0.20990424706527971</v>
+      </c>
+      <c r="H38" s="7">
+        <f t="shared" si="1"/>
+        <v>0.2905507649152933</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -7570,13 +7623,13 @@
         <f t="shared" si="2"/>
         <v>26.938999999999965</v>
       </c>
-      <c r="G39" s="6">
-        <f t="shared" si="0"/>
-        <v>0.23734332914913603</v>
-      </c>
-      <c r="H39" s="8">
-        <f t="shared" si="1"/>
-        <v>0.32853211307524055</v>
+      <c r="G39" s="8">
+        <f t="shared" si="0"/>
+        <v>0.21941173131146188</v>
+      </c>
+      <c r="H39" s="7">
+        <f t="shared" si="1"/>
+        <v>0.30371108376910494</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -7596,13 +7649,13 @@
         <f t="shared" si="2"/>
         <v>29.340999999999894</v>
       </c>
-      <c r="G40" s="6">
-        <f t="shared" si="0"/>
-        <v>0.2335554742545716</v>
-      </c>
-      <c r="H40" s="8">
-        <f t="shared" si="1"/>
-        <v>0.32328894076028708</v>
+      <c r="G40" s="8">
+        <f t="shared" si="0"/>
+        <v>0.21562387641689745</v>
+      </c>
+      <c r="H40" s="7">
+        <f t="shared" si="1"/>
+        <v>0.29846791145415141</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -7622,13 +7675,13 @@
         <f t="shared" si="2"/>
         <v>32.375999999999976</v>
       </c>
-      <c r="G41" s="6">
-        <f t="shared" si="0"/>
-        <v>0.22876940447730112</v>
-      </c>
-      <c r="H41" s="8">
-        <f t="shared" si="1"/>
-        <v>0.31666403319330755</v>
+      <c r="G41" s="8">
+        <f t="shared" si="0"/>
+        <v>0.21083780663962698</v>
+      </c>
+      <c r="H41" s="7">
+        <f t="shared" si="1"/>
+        <v>0.29184300388717194</v>
       </c>
     </row>
     <row r="42" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -7648,13 +7701,13 @@
         <f t="shared" si="2"/>
         <v>36.708999999999946</v>
       </c>
-      <c r="G42" s="6">
-        <f t="shared" si="0"/>
-        <v>0.22193644225492476</v>
-      </c>
-      <c r="H42" s="8">
-        <f t="shared" si="1"/>
-        <v>0.30720580436704031</v>
+      <c r="G42" s="8">
+        <f t="shared" si="0"/>
+        <v>0.20400484441725061</v>
+      </c>
+      <c r="H42" s="7">
+        <f t="shared" si="1"/>
+        <v>0.28238477506090465</v>
       </c>
     </row>
     <row r="43" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -7671,13 +7724,13 @@
         <f t="shared" si="2"/>
         <v>33.288999999999987</v>
       </c>
-      <c r="G43" s="6">
-        <f t="shared" si="0"/>
-        <v>0.22732964114726889</v>
-      </c>
-      <c r="H43" s="8">
-        <f t="shared" si="1"/>
-        <v>0.31467110383296087</v>
+      <c r="G43" s="8">
+        <f t="shared" si="0"/>
+        <v>0.20939804330959474</v>
+      </c>
+      <c r="H43" s="7">
+        <f t="shared" si="1"/>
+        <v>0.28985007452682526</v>
       </c>
     </row>
     <row r="44" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -7688,13 +7741,13 @@
         <f t="shared" si="2"/>
         <v>108.19499999999994</v>
       </c>
-      <c r="G44" s="6">
-        <f t="shared" si="0"/>
-        <v>0.1092059697350078</v>
-      </c>
-      <c r="H44" s="8">
-        <f t="shared" si="1"/>
-        <v>0.15116358284048903</v>
+      <c r="G44" s="8">
+        <f t="shared" si="0"/>
+        <v>9.1274371897333659E-2</v>
+      </c>
+      <c r="H44" s="7">
+        <f t="shared" si="1"/>
+        <v>0.12634255353435342</v>
       </c>
     </row>
     <row r="45" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -7714,20 +7767,20 @@
         <f t="shared" si="2"/>
         <v>35.870999999999981</v>
       </c>
-      <c r="G45" s="6">
-        <f t="shared" si="0"/>
-        <v>0.22325793367942309</v>
-      </c>
-      <c r="H45" s="8">
-        <f t="shared" si="1"/>
-        <v>0.3090350210198009</v>
+      <c r="G45" s="8">
+        <f t="shared" si="0"/>
+        <v>0.20532633584174895</v>
+      </c>
+      <c r="H45" s="7">
+        <f t="shared" si="1"/>
+        <v>0.28421399171366529</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B46" s="7">
+      <c r="B46" s="6">
         <v>0.3923611111111111</v>
       </c>
       <c r="C46" s="1">
@@ -7743,17 +7796,17 @@
         <f t="shared" si="2"/>
         <v>40.781999999999925</v>
       </c>
-      <c r="G46" s="2">
-        <f t="shared" si="0"/>
-        <v>0.21551348930506578</v>
-      </c>
-      <c r="H46" s="8">
-        <f t="shared" si="1"/>
-        <v>0.29831511292707108</v>
+      <c r="G46" s="8">
+        <f t="shared" si="0"/>
+        <v>0.19758189146739163</v>
+      </c>
+      <c r="H46" s="7">
+        <f t="shared" si="1"/>
+        <v>0.27349408362093547</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="7">
+      <c r="B47" s="6">
         <v>0.5</v>
       </c>
       <c r="D47" s="1">
@@ -7763,13 +7816,13 @@
         <f t="shared" si="2"/>
         <v>37.635999999999967</v>
       </c>
-      <c r="G47" s="2">
-        <f t="shared" si="0"/>
-        <v>0.22047460150252618</v>
-      </c>
-      <c r="H47" s="8">
-        <f t="shared" si="1"/>
-        <v>0.30518231530127754</v>
+      <c r="G47" s="8">
+        <f t="shared" si="0"/>
+        <v>0.20254300366485203</v>
+      </c>
+      <c r="H47" s="7">
+        <f t="shared" si="1"/>
+        <v>0.28036128599514193</v>
       </c>
     </row>
     <row r="48" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -7789,13 +7842,13 @@
         <f t="shared" ref="F48:F54" si="3">$D$17-D48</f>
         <v>48.223999999999933</v>
       </c>
-      <c r="G48" s="6">
-        <f t="shared" ref="G48:G54" si="4">(D48-$B$7)/($B$7-$B$5)</f>
-        <v>0.2037777623586256</v>
-      </c>
-      <c r="H48" s="8">
-        <f t="shared" si="1"/>
-        <v>0.2820704466623396</v>
+      <c r="G48" s="8">
+        <f t="shared" si="0"/>
+        <v>0.18584616452095146</v>
+      </c>
+      <c r="H48" s="7">
+        <f t="shared" si="1"/>
+        <v>0.25724941735620394</v>
       </c>
     </row>
     <row r="49" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -7815,13 +7868,13 @@
         <f t="shared" si="3"/>
         <v>52.149000000000001</v>
       </c>
-      <c r="G49" s="6">
-        <f t="shared" si="4"/>
-        <v>0.1975881993023533</v>
-      </c>
-      <c r="H49" s="8">
-        <f t="shared" si="1"/>
-        <v>0.27350281496533985</v>
+      <c r="G49" s="8">
+        <f t="shared" si="0"/>
+        <v>0.17965660146467916</v>
+      </c>
+      <c r="H49" s="7">
+        <f t="shared" si="1"/>
+        <v>0.24868178565920421</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -7841,13 +7894,13 @@
         <f t="shared" si="3"/>
         <v>55.322000000000003</v>
       </c>
-      <c r="G50" s="6">
-        <f t="shared" si="4"/>
-        <v>0.19258450921890063</v>
-      </c>
-      <c r="H50" s="8">
-        <f t="shared" si="1"/>
-        <v>0.26657667601640228</v>
+      <c r="G50" s="8">
+        <f t="shared" si="0"/>
+        <v>0.17465291138122649</v>
+      </c>
+      <c r="H50" s="7">
+        <f t="shared" si="1"/>
+        <v>0.24175564671026667</v>
       </c>
     </row>
     <row r="51" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -7867,13 +7920,13 @@
         <f t="shared" si="3"/>
         <v>57.70799999999997</v>
       </c>
-      <c r="G51" s="6">
-        <f t="shared" si="4"/>
-        <v>0.18882188566418337</v>
-      </c>
-      <c r="H51" s="8">
-        <f t="shared" si="1"/>
-        <v>0.2613684290790671</v>
+      <c r="G51" s="8">
+        <f t="shared" si="0"/>
+        <v>0.17089028782650922</v>
+      </c>
+      <c r="H51" s="7">
+        <f t="shared" si="1"/>
+        <v>0.23654739977293143</v>
       </c>
     </row>
     <row r="52" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -7893,13 +7946,13 @@
         <f t="shared" si="3"/>
         <v>60.620999999999981</v>
       </c>
-      <c r="G52" s="6">
-        <f t="shared" si="4"/>
-        <v>0.18422820485324809</v>
-      </c>
-      <c r="H52" s="8">
-        <f t="shared" si="1"/>
-        <v>0.25500982751642759</v>
+      <c r="G52" s="8">
+        <f t="shared" si="0"/>
+        <v>0.16629660701557394</v>
+      </c>
+      <c r="H52" s="7">
+        <f t="shared" si="1"/>
+        <v>0.23018879821029195</v>
       </c>
     </row>
     <row r="53" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -7919,13 +7972,13 @@
         <f t="shared" si="3"/>
         <v>71.944999999999936</v>
       </c>
-      <c r="G53" s="6">
-        <f t="shared" si="4"/>
-        <v>0.16637072407637521</v>
-      </c>
-      <c r="H53" s="8">
-        <f t="shared" si="1"/>
-        <v>0.23029139150704589</v>
+      <c r="G53" s="8">
+        <f t="shared" si="0"/>
+        <v>0.14843912623870106</v>
+      </c>
+      <c r="H53" s="7">
+        <f t="shared" si="1"/>
+        <v>0.20547036220091028</v>
       </c>
     </row>
     <row r="54" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -7945,13 +7998,13 @@
         <f t="shared" si="3"/>
         <v>77.075999999999908</v>
       </c>
-      <c r="G54" s="6">
-        <f t="shared" si="4"/>
-        <v>0.15827934877911853</v>
-      </c>
-      <c r="H54" s="8">
-        <f t="shared" si="1"/>
-        <v>0.21909125947206382</v>
+      <c r="G54" s="8">
+        <f t="shared" si="0"/>
+        <v>0.14034775094144439</v>
+      </c>
+      <c r="H54" s="7">
+        <f t="shared" si="1"/>
+        <v>0.19427023016592818</v>
       </c>
     </row>
     <row r="55" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -7967,7 +8020,7 @@
   <dimension ref="A1:H69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15:H17"/>
+      <selection activeCell="G17" sqref="G17:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8055,6 +8108,13 @@
         <f>(B7-B5)/D11</f>
         <v>1.3916728223710835</v>
       </c>
+      <c r="C13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="1">
+        <f>D17-B9</f>
+        <v>10.464000000000169</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H15" t="s">
@@ -8106,13 +8166,13 @@
       <c r="F17" s="4">
         <v>0</v>
       </c>
-      <c r="G17" s="6">
-        <f>(D17-$B$7)/($B$7-$B$5)</f>
-        <v>0.26876606125311919</v>
-      </c>
-      <c r="H17" s="8">
-        <f>(D17-$B$7)/$D$11</f>
-        <v>0.37403442302168793</v>
+      <c r="G17" s="8">
+        <f>(D17-$D$13-$B$7)/($B$7-$B$5)</f>
+        <v>0.25252790157788213</v>
+      </c>
+      <c r="H17" s="7">
+        <f>G17*$B$13</f>
+        <v>0.35143621751633841</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -8135,13 +8195,13 @@
         <f>$D$17-D18</f>
         <v>0.46800000000007458</v>
       </c>
-      <c r="G18" s="6">
-        <f t="shared" ref="G18:G47" si="0">(D18-$B$7)/($B$7-$B$5)</f>
-        <v>0.26803981328599269</v>
-      </c>
-      <c r="H18" s="8">
-        <f t="shared" ref="H18:H52" si="1">(D18-$B$7)/$D$11</f>
-        <v>0.37302372346353568</v>
+      <c r="G18" s="8">
+        <f t="shared" ref="G18:G52" si="0">(D18-$D$13-$B$7)/($B$7-$B$5)</f>
+        <v>0.25180165361075563</v>
+      </c>
+      <c r="H18" s="7">
+        <f t="shared" ref="H18:H52" si="1">G18*$B$13</f>
+        <v>0.35042551795818622</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -8164,13 +8224,13 @@
         <f t="shared" ref="F19:F47" si="2">$D$17-D19</f>
         <v>5.4550000000001546</v>
       </c>
-      <c r="G19" s="6">
-        <f t="shared" si="0"/>
-        <v>0.26030092736278865</v>
-      </c>
-      <c r="H19" s="8">
-        <f t="shared" si="1"/>
-        <v>0.36225372624878244</v>
+      <c r="G19" s="8">
+        <f t="shared" si="0"/>
+        <v>0.24406276768755156</v>
+      </c>
+      <c r="H19" s="7">
+        <f t="shared" si="1"/>
+        <v>0.33965552074343297</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -8181,13 +8241,13 @@
         <f t="shared" si="2"/>
         <v>3.2230000000001837</v>
       </c>
-      <c r="G20" s="6">
-        <f t="shared" si="0"/>
-        <v>0.2637645715136992</v>
-      </c>
-      <c r="H20" s="8">
-        <f t="shared" si="1"/>
-        <v>0.36707398567996924</v>
+      <c r="G20" s="8">
+        <f t="shared" si="0"/>
+        <v>0.24752641183846211</v>
+      </c>
+      <c r="H20" s="7">
+        <f t="shared" si="1"/>
+        <v>0.34447578017461972</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -8204,13 +8264,13 @@
         <f t="shared" si="2"/>
         <v>3.0690000000001874</v>
       </c>
-      <c r="G21" s="6">
-        <f t="shared" si="0"/>
-        <v>0.26400355054561686</v>
-      </c>
-      <c r="H21" s="8">
-        <f t="shared" si="1"/>
-        <v>0.36740656630380564</v>
+      <c r="G21" s="8">
+        <f t="shared" si="0"/>
+        <v>0.24776539087037977</v>
+      </c>
+      <c r="H21" s="7">
+        <f t="shared" si="1"/>
+        <v>0.34480836079845611</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -8233,13 +8293,13 @@
         <f t="shared" si="2"/>
         <v>14.70900000000006</v>
       </c>
-      <c r="G22" s="6">
-        <f t="shared" si="0"/>
-        <v>0.24594046008119078</v>
-      </c>
-      <c r="H22" s="8">
-        <f t="shared" si="1"/>
-        <v>0.3422686542164336</v>
+      <c r="G22" s="8">
+        <f t="shared" si="0"/>
+        <v>0.22970230040595371</v>
+      </c>
+      <c r="H22" s="7">
+        <f t="shared" si="1"/>
+        <v>0.31967044871108408</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -8250,13 +8310,13 @@
         <f t="shared" si="2"/>
         <v>8.803000000000111</v>
       </c>
-      <c r="G23" s="6">
-        <f t="shared" si="0"/>
-        <v>0.2551054611364228</v>
-      </c>
-      <c r="H23" s="8">
-        <f t="shared" si="1"/>
-        <v>0.35502333710200229</v>
+      <c r="G23" s="8">
+        <f t="shared" si="0"/>
+        <v>0.2388673014611857</v>
+      </c>
+      <c r="H23" s="7">
+        <f t="shared" si="1"/>
+        <v>0.33242513159665277</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -8276,13 +8336,13 @@
         <f t="shared" si="2"/>
         <v>16.2650000000001</v>
       </c>
-      <c r="G24" s="6">
-        <f t="shared" si="0"/>
-        <v>0.24352584077168493</v>
-      </c>
-      <c r="H24" s="8">
-        <f t="shared" si="1"/>
-        <v>0.33890829414702189</v>
+      <c r="G24" s="8">
+        <f t="shared" si="0"/>
+        <v>0.22728768109644787</v>
+      </c>
+      <c r="H24" s="7">
+        <f t="shared" si="1"/>
+        <v>0.31631008864167237</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -8302,13 +8362,13 @@
         <f t="shared" si="2"/>
         <v>26.319000000000074</v>
       </c>
-      <c r="G25" s="6">
-        <f t="shared" si="0"/>
-        <v>0.22792392397363156</v>
-      </c>
-      <c r="H25" s="8">
-        <f t="shared" si="1"/>
-        <v>0.31719553056227612</v>
+      <c r="G25" s="8">
+        <f t="shared" si="0"/>
+        <v>0.2116857642983945</v>
+      </c>
+      <c r="H25" s="7">
+        <f t="shared" si="1"/>
+        <v>0.2945973250569266</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -8325,13 +8385,13 @@
         <f t="shared" si="2"/>
         <v>30.592000000000098</v>
       </c>
-      <c r="G26" s="6">
-        <f t="shared" si="0"/>
-        <v>0.22129303174386405</v>
-      </c>
-      <c r="H26" s="8">
-        <f t="shared" si="1"/>
-        <v>0.30796749805803708</v>
+      <c r="G26" s="8">
+        <f t="shared" si="0"/>
+        <v>0.20505487206862699</v>
+      </c>
+      <c r="H26" s="7">
+        <f t="shared" si="1"/>
+        <v>0.28536929255268756</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -8342,13 +8402,13 @@
         <f t="shared" si="2"/>
         <v>19.419000000000096</v>
       </c>
-      <c r="G27" s="6">
-        <f t="shared" si="0"/>
-        <v>0.23863142605305948</v>
-      </c>
-      <c r="H27" s="8">
-        <f t="shared" si="1"/>
-        <v>0.33209687020169781</v>
+      <c r="G27" s="8">
+        <f t="shared" si="0"/>
+        <v>0.22239326637782242</v>
+      </c>
+      <c r="H27" s="7">
+        <f t="shared" si="1"/>
+        <v>0.30949866469634829</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -8371,13 +8431,13 @@
         <f t="shared" si="2"/>
         <v>22.82000000000005</v>
       </c>
-      <c r="G28" s="6">
-        <f t="shared" si="0"/>
-        <v>0.23335371379622846</v>
-      </c>
-      <c r="H28" s="8">
-        <f t="shared" si="1"/>
-        <v>0.32475202148957133</v>
+      <c r="G28" s="8">
+        <f t="shared" si="0"/>
+        <v>0.2171155541209914</v>
+      </c>
+      <c r="H28" s="7">
+        <f t="shared" si="1"/>
+        <v>0.30215381598422181</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -8394,13 +8454,13 @@
         <f t="shared" si="2"/>
         <v>27.669000000000096</v>
       </c>
-      <c r="G29" s="6">
-        <f t="shared" si="0"/>
-        <v>0.22582897791461304</v>
-      </c>
-      <c r="H29" s="8">
-        <f t="shared" si="1"/>
-        <v>0.31428005106760659</v>
+      <c r="G29" s="8">
+        <f t="shared" si="0"/>
+        <v>0.20959081823937595</v>
+      </c>
+      <c r="H29" s="7">
+        <f t="shared" si="1"/>
+        <v>0.29168184556225707</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -8411,13 +8471,13 @@
         <f t="shared" si="2"/>
         <v>23.511000000000081</v>
       </c>
-      <c r="G30" s="6">
-        <f t="shared" si="0"/>
-        <v>0.23228141177639006</v>
-      </c>
-      <c r="H30" s="8">
-        <f t="shared" si="1"/>
-        <v>0.32325972791118862</v>
+      <c r="G30" s="8">
+        <f t="shared" si="0"/>
+        <v>0.21604325210115299</v>
+      </c>
+      <c r="H30" s="7">
+        <f t="shared" si="1"/>
+        <v>0.3006615224058391</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -8440,13 +8500,13 @@
         <f t="shared" si="2"/>
         <v>65.701000000000136</v>
       </c>
-      <c r="G31" s="6">
-        <f t="shared" si="0"/>
-        <v>0.16681046790232262</v>
-      </c>
-      <c r="H31" s="8">
-        <f t="shared" si="1"/>
-        <v>0.23214559466666637</v>
+      <c r="G31" s="8">
+        <f t="shared" si="0"/>
+        <v>0.15057230822708556</v>
+      </c>
+      <c r="H31" s="7">
+        <f t="shared" si="1"/>
+        <v>0.20954738916131688</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -8457,13 +8517,13 @@
         <f t="shared" si="2"/>
         <v>44.611000000000104</v>
       </c>
-      <c r="G32" s="6">
-        <f t="shared" si="0"/>
-        <v>0.1995381807798785</v>
-      </c>
-      <c r="H32" s="8">
-        <f t="shared" si="1"/>
-        <v>0.27769186321672501</v>
+      <c r="G32" s="8">
+        <f t="shared" si="0"/>
+        <v>0.18330002110464144</v>
+      </c>
+      <c r="H32" s="7">
+        <f t="shared" si="1"/>
+        <v>0.25509365771137554</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -8483,13 +8543,13 @@
         <f t="shared" si="2"/>
         <v>59.544000000000096</v>
       </c>
-      <c r="G33" s="6">
-        <f t="shared" si="0"/>
-        <v>0.17636497374334265</v>
-      </c>
-      <c r="H33" s="8">
-        <f t="shared" si="1"/>
-        <v>0.24544234077679972</v>
+      <c r="G33" s="8">
+        <f t="shared" si="0"/>
+        <v>0.16012681406810558</v>
+      </c>
+      <c r="H33" s="7">
+        <f t="shared" si="1"/>
+        <v>0.22284413527145022</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -8509,13 +8569,13 @@
         <f t="shared" si="2"/>
         <v>70.614000000000033</v>
       </c>
-      <c r="G34" s="6">
-        <f t="shared" si="0"/>
-        <v>0.15918641605939096</v>
-      </c>
-      <c r="H34" s="8">
-        <f t="shared" si="1"/>
-        <v>0.22153540892051021</v>
+      <c r="G34" s="8">
+        <f t="shared" si="0"/>
+        <v>0.1429482563841539</v>
+      </c>
+      <c r="H34" s="7">
+        <f t="shared" si="1"/>
+        <v>0.19893720341516072</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -8532,13 +8592,13 @@
         <f t="shared" si="2"/>
         <v>76.410000000000082</v>
       </c>
-      <c r="G35" s="6">
-        <f t="shared" si="0"/>
-        <v>0.15019211431267143</v>
-      </c>
-      <c r="H35" s="8">
-        <f t="shared" si="1"/>
-        <v>0.20901828362339586</v>
+      <c r="G35" s="8">
+        <f t="shared" si="0"/>
+        <v>0.13395395463743434</v>
+      </c>
+      <c r="H35" s="7">
+        <f t="shared" si="1"/>
+        <v>0.18642007811804634</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -8549,13 +8609,13 @@
         <f t="shared" si="2"/>
         <v>59.817000000000121</v>
       </c>
-      <c r="G36" s="6">
-        <f t="shared" si="0"/>
-        <v>0.17594132909585219</v>
-      </c>
-      <c r="H36" s="8">
-        <f t="shared" si="1"/>
-        <v>0.24485276603454428</v>
+      <c r="G36" s="8">
+        <f t="shared" si="0"/>
+        <v>0.15970316942061513</v>
+      </c>
+      <c r="H36" s="7">
+        <f t="shared" si="1"/>
+        <v>0.22225456052919476</v>
       </c>
     </row>
     <row r="37" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -8575,13 +8635,13 @@
         <f t="shared" si="2"/>
         <v>97.653000000000134</v>
       </c>
-      <c r="G37" s="6">
-        <f t="shared" si="0"/>
-        <v>0.11722697421509341</v>
-      </c>
-      <c r="H37" s="8">
-        <f t="shared" si="1"/>
-        <v>0.1631415940639413</v>
+      <c r="G37" s="8">
+        <f t="shared" si="0"/>
+        <v>0.10098881453985634</v>
+      </c>
+      <c r="H37" s="7">
+        <f t="shared" si="1"/>
+        <v>0.14054338855859178</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -8604,13 +8664,13 @@
         <f t="shared" si="2"/>
         <v>131.76800000000014</v>
       </c>
-      <c r="G38" s="6">
-        <f t="shared" si="0"/>
-        <v>6.4286911397747865E-2</v>
-      </c>
-      <c r="H38" s="8">
-        <f t="shared" si="1"/>
-        <v>8.9466347426423551E-2</v>
+      <c r="G38" s="8">
+        <f t="shared" si="0"/>
+        <v>4.8048751722510795E-2</v>
+      </c>
+      <c r="H38" s="7">
+        <f t="shared" si="1"/>
+        <v>6.6868141921074056E-2</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -8621,13 +8681,13 @@
         <f t="shared" si="2"/>
         <v>96.025000000000091</v>
       </c>
-      <c r="G39" s="6">
-        <f t="shared" si="0"/>
-        <v>0.11975332398108024</v>
-      </c>
-      <c r="H39" s="8">
-        <f t="shared" si="1"/>
-        <v>0.1666574463730687</v>
+      <c r="G39" s="8">
+        <f t="shared" si="0"/>
+        <v>0.10351516430584318</v>
+      </c>
+      <c r="H39" s="7">
+        <f t="shared" si="1"/>
+        <v>0.14405924086771921</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -8647,13 +8707,13 @@
         <f t="shared" si="2"/>
         <v>107.8370000000001</v>
       </c>
-      <c r="G40" s="6">
-        <f t="shared" si="0"/>
-        <v>0.10142332187061605</v>
-      </c>
-      <c r="H40" s="8">
-        <f t="shared" si="1"/>
-        <v>0.14114808060193107</v>
+      <c r="G40" s="8">
+        <f t="shared" si="0"/>
+        <v>8.5185162195378972E-2</v>
+      </c>
+      <c r="H40" s="7">
+        <f t="shared" si="1"/>
+        <v>0.11854987509658158</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -8673,13 +8733,13 @@
         <f t="shared" si="2"/>
         <v>128.70200000000011</v>
       </c>
-      <c r="G41" s="6">
-        <f t="shared" si="0"/>
-        <v>6.9044766669563287E-2</v>
-      </c>
-      <c r="H41" s="8">
-        <f t="shared" si="1"/>
-        <v>9.6087725300984056E-2</v>
+      <c r="G41" s="8">
+        <f t="shared" si="0"/>
+        <v>5.2806606994326218E-2</v>
+      </c>
+      <c r="H41" s="7">
+        <f t="shared" si="1"/>
+        <v>7.3489519795634561E-2</v>
       </c>
     </row>
     <row r="42" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -8696,13 +8756,13 @@
         <f t="shared" si="2"/>
         <v>131.13200000000006</v>
       </c>
-      <c r="G42" s="6">
-        <f t="shared" si="0"/>
-        <v>6.5273863763330039E-2</v>
-      </c>
-      <c r="H42" s="8">
-        <f t="shared" si="1"/>
-        <v>9.0839862210579117E-2</v>
+      <c r="G42" s="8">
+        <f t="shared" si="0"/>
+        <v>4.9035704088092977E-2</v>
+      </c>
+      <c r="H42" s="7">
+        <f t="shared" si="1"/>
+        <v>6.8241656705229622E-2</v>
       </c>
     </row>
     <row r="43" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -8716,13 +8776,13 @@
         <f t="shared" si="2"/>
         <v>131.39100000000008</v>
       </c>
-      <c r="G43" s="6">
-        <f t="shared" si="0"/>
-        <v>6.4871944482377583E-2</v>
-      </c>
-      <c r="H43" s="8">
-        <f t="shared" si="1"/>
-        <v>9.0280522070490657E-2</v>
+      <c r="G43" s="8">
+        <f t="shared" si="0"/>
+        <v>4.8633784807140513E-2</v>
+      </c>
+      <c r="H43" s="7">
+        <f t="shared" si="1"/>
+        <v>6.7682316565141162E-2</v>
       </c>
     </row>
     <row r="44" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -8745,13 +8805,13 @@
         <f t="shared" si="2"/>
         <v>137.11300000000006</v>
       </c>
-      <c r="G44" s="6">
-        <f t="shared" si="0"/>
-        <v>5.5992476815930267E-2</v>
-      </c>
-      <c r="H44" s="8">
-        <f t="shared" si="1"/>
-        <v>7.7923208241973144E-2</v>
+      <c r="G44" s="8">
+        <f t="shared" si="0"/>
+        <v>3.9754317140693197E-2</v>
+      </c>
+      <c r="H44" s="7">
+        <f t="shared" si="1"/>
+        <v>5.5325002736623642E-2</v>
       </c>
     </row>
     <row r="45" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -8765,13 +8825,13 @@
         <f t="shared" si="2"/>
         <v>72.742000000000075</v>
       </c>
-      <c r="G45" s="6">
-        <f t="shared" si="0"/>
-        <v>0.1558841603456195</v>
-      </c>
-      <c r="H45" s="8">
-        <f t="shared" si="1"/>
-        <v>0.21693974939113483</v>
+      <c r="G45" s="8">
+        <f t="shared" si="0"/>
+        <v>0.13964600067038244</v>
+      </c>
+      <c r="H45" s="7">
+        <f t="shared" si="1"/>
+        <v>0.19434154388578534</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -8791,20 +8851,20 @@
         <f t="shared" si="2"/>
         <v>80.510000000000105</v>
       </c>
-      <c r="G46" s="6">
-        <f t="shared" si="0"/>
-        <v>0.14382968554083739</v>
-      </c>
-      <c r="H46" s="8">
-        <f t="shared" si="1"/>
-        <v>0.20016386441736261</v>
+      <c r="G46" s="8">
+        <f t="shared" si="0"/>
+        <v>0.12759152586560032</v>
+      </c>
+      <c r="H46" s="7">
+        <f t="shared" si="1"/>
+        <v>0.17756565891201309</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B47" s="7">
+      <c r="B47" s="6">
         <v>0.3923611111111111</v>
       </c>
       <c r="C47" s="1">
@@ -8820,13 +8880,13 @@
         <f t="shared" si="2"/>
         <v>109.14600000000007</v>
       </c>
-      <c r="G47" s="2">
-        <f t="shared" si="0"/>
-        <v>9.9392000099315925E-2</v>
-      </c>
-      <c r="H47" s="8">
-        <f t="shared" si="1"/>
-        <v>0.13832114529932202</v>
+      <c r="G47" s="8">
+        <f t="shared" si="0"/>
+        <v>8.3153840424078862E-2</v>
+      </c>
+      <c r="H47" s="7">
+        <f t="shared" si="1"/>
+        <v>0.11572293979397252</v>
       </c>
     </row>
     <row r="48" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -8849,13 +8909,13 @@
         <f>$D$17-D48</f>
         <v>139.45200000000011</v>
       </c>
-      <c r="G48" s="6">
-        <f>(D48-$B$7)/($B$7-$B$5)</f>
-        <v>5.2362788792193665E-2</v>
-      </c>
-      <c r="H48" s="8">
-        <f t="shared" si="1"/>
-        <v>7.2871870065653099E-2</v>
+      <c r="G48" s="8">
+        <f t="shared" si="0"/>
+        <v>3.6124629116956603E-2</v>
+      </c>
+      <c r="H48" s="7">
+        <f t="shared" si="1"/>
+        <v>5.0273664560303619E-2</v>
       </c>
     </row>
     <row r="49" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -8866,13 +8926,13 @@
         <f>$D$17-D49</f>
         <v>105.65300000000013</v>
       </c>
-      <c r="G49" s="6">
-        <f>(D49-$B$7)/($B$7-$B$5)</f>
-        <v>0.10481247905053928</v>
-      </c>
-      <c r="H49" s="8">
-        <f t="shared" si="1"/>
-        <v>0.14586467853997406</v>
+      <c r="G49" s="8">
+        <f t="shared" si="0"/>
+        <v>8.8574319375302205E-2</v>
+      </c>
+      <c r="H49" s="7">
+        <f t="shared" si="1"/>
+        <v>0.12326647303462457</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -8895,13 +8955,13 @@
         <f>$D$17-D50</f>
         <v>115.82900000000006</v>
       </c>
-      <c r="G50" s="6">
-        <f>(D50-$B$7)/($B$7-$B$5)</f>
-        <v>8.9021241201226523E-2</v>
-      </c>
-      <c r="H50" s="8">
-        <f t="shared" si="1"/>
-        <v>0.1238884419934879</v>
+      <c r="G50" s="8">
+        <f t="shared" si="0"/>
+        <v>7.278308152598946E-2</v>
+      </c>
+      <c r="H50" s="7">
+        <f t="shared" si="1"/>
+        <v>0.10129023648813841</v>
       </c>
     </row>
     <row r="51" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -8918,13 +8978,13 @@
         <f>$D$17-D51</f>
         <v>122.32300000000009</v>
       </c>
-      <c r="G51" s="6">
-        <f>(D51-$B$7)/($B$7-$B$5)</f>
-        <v>7.8943774751399673E-2</v>
-      </c>
-      <c r="H51" s="8">
-        <f t="shared" si="1"/>
-        <v>0.10986390581690746</v>
+      <c r="G51" s="8">
+        <f t="shared" si="0"/>
+        <v>6.2705615076162596E-2</v>
+      </c>
+      <c r="H51" s="7">
+        <f t="shared" si="1"/>
+        <v>8.7265700311557962E-2</v>
       </c>
     </row>
     <row r="52" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -8941,13 +9001,13 @@
         <f>$D$17-D52</f>
         <v>122.54000000000008</v>
       </c>
-      <c r="G52" s="6">
-        <f>(D52-$B$7)/($B$7-$B$5)</f>
-        <v>7.8607031570061159E-2</v>
-      </c>
-      <c r="H52" s="8">
-        <f t="shared" si="1"/>
-        <v>0.10939526948331989</v>
+      <c r="G52" s="8">
+        <f t="shared" si="0"/>
+        <v>6.2368871894824089E-2</v>
+      </c>
+      <c r="H52" s="7">
+        <f t="shared" si="1"/>
+        <v>8.6797063977970379E-2</v>
       </c>
     </row>
     <row r="53" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
